--- a/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$J$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Netrokona!$A$1:$O$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sunamgonj!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Habiganj_Categorical_Projection!$A$1:$P$64</definedName>
@@ -1401,12 +1401,6 @@
     <t>Package No.: PW-10/ Noapara Haor</t>
   </si>
   <si>
-    <t>Regulator 1-Vent (1.50mx1.80m)-1 at 35.20 km at Hazirkhali</t>
-  </si>
-  <si>
-    <t>Regulator 2-Vent (1.50mx1.80m)-1 at ) 23.40 km at Baniajanj</t>
-  </si>
-  <si>
     <t>Causeway 4.0m wide-1 at Karpasha</t>
   </si>
   <si>
@@ -1803,6 +1797,12 @@
   </si>
   <si>
     <t>120..16</t>
+  </si>
+  <si>
+    <t>Mohorkona Box Outlet</t>
+  </si>
+  <si>
+    <t>Causeway 6.0m wide-1 at Samar Bari</t>
   </si>
 </sst>
 </file>
@@ -2664,6 +2664,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2675,13 +2682,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13615,13 +13615,13 @@
       <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="198" t="s">
+      <c r="A49" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
       <c r="F49" s="44">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -14552,24 +14552,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="170" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" s="170" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="170" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B2" s="170"/>
       <c r="C2" s="19"/>
@@ -14580,7 +14580,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="170" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="19"/>
@@ -14591,7 +14591,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B4" s="170"/>
       <c r="C4" s="19"/>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="170" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="19"/>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="170" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="19"/>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="170" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="19"/>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="170" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="19"/>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="170" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="19"/>
@@ -14657,7 +14657,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="170" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="19"/>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="170" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="19"/>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="170" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="19"/>
@@ -14690,7 +14690,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="170" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="19"/>
@@ -14712,7 +14712,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14727,7 +14727,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>225</v>
@@ -14736,10 +14736,10 @@
         <v>226</v>
       </c>
       <c r="D1" s="170" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E1" s="184" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
@@ -14759,7 +14759,7 @@
         <v>291.81</v>
       </c>
       <c r="E2" s="170" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="185"/>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="170" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="185"/>
@@ -14799,7 +14799,7 @@
         <v>6503.97</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H4" s="93"/>
       <c r="I4" s="185"/>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H5" s="93"/>
       <c r="I5" s="185"/>
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H6" s="93"/>
       <c r="I6" s="185"/>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H7" s="93"/>
       <c r="I7" s="185"/>
@@ -14879,7 +14879,7 @@
         <v>2546.54</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H8" s="93"/>
       <c r="I8" s="185"/>
@@ -14899,7 +14899,7 @@
         <v>51.09</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="185"/>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="170" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="185"/>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="170" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="185"/>
@@ -14955,7 +14955,7 @@
         <v>5833.04</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="185"/>
@@ -14973,7 +14973,7 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="170" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="93"/>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="170" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="170" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15024,7 +15024,7 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="170" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -16806,8 +16806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16846,10 +16846,10 @@
         <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -16874,10 +16874,10 @@
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="42.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I2" s="171" t="s">
         <v>14</v>
@@ -16915,10 +16915,10 @@
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1" ht="41.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I3" s="171" t="s">
         <v>14</v>
@@ -16956,10 +16956,10 @@
     </row>
     <row r="4" spans="1:15" s="14" customFormat="1" ht="37.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>12</v>
@@ -16977,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I4" s="171" t="s">
         <v>14</v>
@@ -16997,10 +16997,10 @@
     </row>
     <row r="5" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>530</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -17018,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I5" s="171" t="s">
         <v>14</v>
@@ -17038,10 +17038,10 @@
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -17059,7 +17059,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>14</v>
@@ -17079,10 +17079,10 @@
     </row>
     <row r="7" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>14</v>
@@ -17120,10 +17120,10 @@
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>57</v>
@@ -17141,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="159">
@@ -17159,10 +17159,10 @@
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -17180,7 +17180,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="159">
@@ -17198,10 +17198,10 @@
     </row>
     <row r="10" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="159">
@@ -17237,10 +17237,10 @@
     </row>
     <row r="11" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -17258,7 +17258,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="159">
@@ -17276,10 +17276,10 @@
     </row>
     <row r="12" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -17297,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="159">
@@ -17315,10 +17315,10 @@
     </row>
     <row r="13" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -17336,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="159">
@@ -17354,10 +17354,10 @@
     </row>
     <row r="14" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
@@ -17375,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="173" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="159">
@@ -17393,10 +17393,10 @@
     </row>
     <row r="15" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
@@ -17414,7 +17414,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="159">
@@ -17432,10 +17432,10 @@
     </row>
     <row r="16" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -17453,7 +17453,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="159">
@@ -17471,7 +17471,7 @@
     </row>
     <row r="17" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>416</v>
@@ -17490,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="159">
@@ -17508,10 +17508,10 @@
     </row>
     <row r="18" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>57</v>
@@ -17529,7 +17529,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="173" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="159">
@@ -17547,10 +17547,10 @@
     </row>
     <row r="19" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A19" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>57</v>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="173" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="159">
@@ -17586,10 +17586,10 @@
     </row>
     <row r="20" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>57</v>
@@ -17607,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="173" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="159">
@@ -17625,10 +17625,10 @@
     </row>
     <row r="21" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="173" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="159">
@@ -17664,10 +17664,10 @@
     </row>
     <row r="22" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>57</v>
@@ -17685,7 +17685,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="159">
@@ -17703,10 +17703,10 @@
     </row>
     <row r="23" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>12</v>
@@ -17724,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="159">
@@ -17742,10 +17742,10 @@
     </row>
     <row r="24" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="159">
@@ -17781,10 +17781,10 @@
     </row>
     <row r="25" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>12</v>
@@ -17802,7 +17802,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="159">
@@ -17820,10 +17820,10 @@
     </row>
     <row r="26" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="159">
@@ -17859,10 +17859,10 @@
     </row>
     <row r="27" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
@@ -17880,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="159">
@@ -17898,10 +17898,10 @@
     </row>
     <row r="28" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -17919,7 +17919,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="159">
@@ -17937,7 +17937,7 @@
     </row>
     <row r="29" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>416</v>
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="159">
@@ -17976,10 +17976,10 @@
     </row>
     <row r="30" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -17997,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="173" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="159">
@@ -18015,10 +18015,10 @@
     </row>
     <row r="31" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B31" s="172" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C31" s="172" t="s">
         <v>12</v>
@@ -18036,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I31" s="191"/>
       <c r="J31" s="192">
@@ -18054,10 +18054,10 @@
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B32" s="172" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C32" s="172" t="s">
         <v>12</v>
@@ -18075,7 +18075,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I32" s="191"/>
       <c r="J32" s="192">
@@ -18093,10 +18093,10 @@
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" s="172" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C33" s="172" t="s">
         <v>12</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I33" s="191"/>
       <c r="J33" s="192">
@@ -18132,10 +18132,10 @@
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B34" s="172" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C34" s="172" t="s">
         <v>12</v>
@@ -18153,7 +18153,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I34" s="191"/>
       <c r="J34" s="192">
@@ -18171,10 +18171,10 @@
     </row>
     <row r="35" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C35" s="172" t="s">
         <v>12</v>
@@ -18192,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I35" s="191"/>
       <c r="J35" s="192">
@@ -18210,10 +18210,10 @@
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B36" s="172" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C36" s="172" t="s">
         <v>12</v>
@@ -18222,7 +18222,7 @@
         <v>3.56</v>
       </c>
       <c r="E36" s="189" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F36" s="190">
         <v>1</v>
@@ -18231,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I36" s="191"/>
       <c r="J36" s="192">
@@ -18249,10 +18249,10 @@
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -18270,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="159">
@@ -18288,10 +18288,10 @@
     </row>
     <row r="38" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>12</v>
@@ -18309,7 +18309,7 @@
         <v>2.16</v>
       </c>
       <c r="H38" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="159">
@@ -18327,10 +18327,10 @@
     </row>
     <row r="39" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>12</v>
@@ -18348,7 +18348,7 @@
         <v>0.4</v>
       </c>
       <c r="H39" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="159">
@@ -18366,10 +18366,10 @@
     </row>
     <row r="40" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>12</v>
@@ -18387,7 +18387,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="159">
@@ -18405,10 +18405,10 @@
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="159">
@@ -18444,10 +18444,10 @@
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>12</v>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="159">
@@ -18483,10 +18483,10 @@
     </row>
     <row r="43" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="159">
@@ -18522,10 +18522,10 @@
     </row>
     <row r="44" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>12</v>
@@ -18543,7 +18543,7 @@
         <v>0.2</v>
       </c>
       <c r="H44" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="159">
@@ -18561,7 +18561,7 @@
     </row>
     <row r="45" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>416</v>
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="173" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="159">
@@ -18596,157 +18596,153 @@
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
     </row>
-    <row r="46" spans="1:15" s="14" customFormat="1" ht="51" customHeight="1">
-      <c r="A46" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="C46" s="49" t="s">
+    <row r="46" spans="1:15" s="14" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A46" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B46" s="172" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="68">
-        <v>1</v>
-      </c>
-      <c r="E46" s="68">
-        <v>185.76</v>
-      </c>
-      <c r="F46" s="199">
-        <v>1</v>
-      </c>
-      <c r="G46" s="199">
-        <v>1</v>
-      </c>
-      <c r="H46" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="I46" s="200"/>
-      <c r="J46" s="54">
-        <v>3</v>
-      </c>
-      <c r="K46" s="201"/>
-      <c r="L46" s="49" t="s">
+      <c r="D46" s="189">
+        <v>1</v>
+      </c>
+      <c r="E46" s="189">
+        <v>210.83</v>
+      </c>
+      <c r="F46" s="190">
+        <v>1</v>
+      </c>
+      <c r="G46" s="190">
+        <v>1</v>
+      </c>
+      <c r="H46" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="I46" s="191"/>
+      <c r="J46" s="192">
+        <v>5</v>
+      </c>
+      <c r="K46" s="193"/>
+      <c r="L46" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="M46" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
     </row>
-    <row r="47" spans="1:15" s="14" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A47" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="B47" s="49" t="s">
+    <row r="47" spans="1:15" ht="53.1" customHeight="1">
+      <c r="A47" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="172" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="68">
-        <v>1</v>
-      </c>
-      <c r="E47" s="68">
-        <v>211.88</v>
-      </c>
-      <c r="F47" s="199">
-        <v>1</v>
-      </c>
-      <c r="G47" s="199">
-        <v>1</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="I47" s="200"/>
-      <c r="J47" s="54">
-        <v>3</v>
-      </c>
-      <c r="K47" s="201"/>
-      <c r="L47" s="49" t="s">
+      <c r="D47" s="189">
+        <v>1</v>
+      </c>
+      <c r="E47" s="189">
+        <v>176.64</v>
+      </c>
+      <c r="F47" s="190">
+        <v>1</v>
+      </c>
+      <c r="G47" s="190">
+        <v>1</v>
+      </c>
+      <c r="H47" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="I47" s="191"/>
+      <c r="J47" s="192">
+        <v>5</v>
+      </c>
+      <c r="K47" s="193"/>
+      <c r="L47" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="M47" s="194" t="s">
         <v>362</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-    </row>
-    <row r="48" spans="1:15" s="14" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A48" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="C48" s="49" t="s">
+    </row>
+    <row r="48" spans="1:15" ht="53.1" customHeight="1">
+      <c r="A48" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B48" s="172" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="68">
-        <v>1</v>
-      </c>
-      <c r="E48" s="68">
-        <v>174.59</v>
-      </c>
-      <c r="F48" s="199">
-        <v>1</v>
-      </c>
-      <c r="G48" s="199">
-        <v>1</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="I48" s="200"/>
-      <c r="J48" s="54">
+      <c r="D48" s="189">
+        <v>1</v>
+      </c>
+      <c r="E48" s="189">
+        <v>66.64</v>
+      </c>
+      <c r="F48" s="190">
+        <v>1</v>
+      </c>
+      <c r="G48" s="190">
+        <v>1</v>
+      </c>
+      <c r="H48" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="I48" s="191"/>
+      <c r="J48" s="192">
+        <v>4</v>
+      </c>
+      <c r="K48" s="193"/>
+      <c r="L48" s="172" t="s">
+        <v>263</v>
+      </c>
+      <c r="M48" s="194" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="53.1" customHeight="1">
+      <c r="A49" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" s="172" t="s">
+        <v>575</v>
+      </c>
+      <c r="C49" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="189">
+        <v>1</v>
+      </c>
+      <c r="E49" s="189">
+        <v>241.26</v>
+      </c>
+      <c r="F49" s="190">
+        <v>1</v>
+      </c>
+      <c r="G49" s="190">
+        <v>1</v>
+      </c>
+      <c r="H49" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="I49" s="191"/>
+      <c r="J49" s="192">
         <v>5</v>
       </c>
-      <c r="K48" s="201"/>
-      <c r="L48" s="49" t="s">
+      <c r="K49" s="193"/>
+      <c r="L49" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M48" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-    </row>
-    <row r="49" spans="1:13" ht="53.1" customHeight="1">
-      <c r="A49" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="68">
-        <v>1</v>
-      </c>
-      <c r="E49" s="68">
-        <v>143.61383592000001</v>
-      </c>
-      <c r="F49" s="199">
-        <v>1</v>
-      </c>
-      <c r="G49" s="199">
-        <v>1</v>
-      </c>
-      <c r="H49" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="I49" s="200"/>
-      <c r="J49" s="54">
-        <v>5</v>
-      </c>
-      <c r="K49" s="201"/>
-      <c r="L49" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="M49" s="53" t="s">
+      <c r="M49" s="194" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19231,10 +19227,10 @@
     </row>
     <row r="63" spans="1:13" ht="43.5" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>57</v>
@@ -19252,7 +19248,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="175" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="159">
@@ -19268,10 +19264,10 @@
     </row>
     <row r="64" spans="1:13" ht="43.5" customHeight="1">
       <c r="A64" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>57</v>
@@ -19289,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="175" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="159">
@@ -19305,10 +19301,10 @@
     </row>
     <row r="65" spans="1:14" ht="53.1" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>12</v>
@@ -19326,7 +19322,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="175" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="159">
@@ -19342,10 +19338,10 @@
     </row>
     <row r="66" spans="1:14" s="145" customFormat="1" ht="53.1" customHeight="1">
       <c r="A66" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C66" s="49" t="s">
         <v>57</v>
@@ -19356,20 +19352,20 @@
       <c r="E66" s="68">
         <v>263.7</v>
       </c>
-      <c r="F66" s="199">
+      <c r="F66" s="195">
         <v>0.95</v>
       </c>
-      <c r="G66" s="199">
+      <c r="G66" s="195">
         <v>1</v>
       </c>
       <c r="H66" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="I66" s="200"/>
+        <v>453</v>
+      </c>
+      <c r="I66" s="196"/>
       <c r="J66" s="54">
         <v>3</v>
       </c>
-      <c r="K66" s="201"/>
+      <c r="K66" s="197"/>
       <c r="L66" s="49" t="s">
         <v>267</v>
       </c>
@@ -19379,10 +19375,10 @@
     </row>
     <row r="67" spans="1:14" ht="53.1" customHeight="1">
       <c r="A67" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C67" s="49" t="s">
         <v>12</v>
@@ -19393,20 +19389,20 @@
       <c r="E67" s="68">
         <v>485.98</v>
       </c>
-      <c r="F67" s="199">
+      <c r="F67" s="195">
         <v>0.86</v>
       </c>
-      <c r="G67" s="199">
+      <c r="G67" s="195">
         <v>1</v>
       </c>
       <c r="H67" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="I67" s="200"/>
+        <v>453</v>
+      </c>
+      <c r="I67" s="196"/>
       <c r="J67" s="54">
         <v>11</v>
       </c>
-      <c r="K67" s="201"/>
+      <c r="K67" s="197"/>
       <c r="L67" s="49" t="s">
         <v>267</v>
       </c>
@@ -19417,7 +19413,7 @@
     </row>
     <row r="68" spans="1:14" ht="53.1" customHeight="1">
       <c r="A68" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B68" s="49" t="s">
         <v>416</v>
@@ -19431,20 +19427,20 @@
       <c r="E68" s="68">
         <v>133.96</v>
       </c>
-      <c r="F68" s="199">
+      <c r="F68" s="195">
         <v>0</v>
       </c>
-      <c r="G68" s="199">
+      <c r="G68" s="195">
         <v>1</v>
       </c>
       <c r="H68" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="I68" s="200"/>
+        <v>453</v>
+      </c>
+      <c r="I68" s="196"/>
       <c r="J68" s="54">
         <v>11</v>
       </c>
-      <c r="K68" s="201"/>
+      <c r="K68" s="197"/>
       <c r="L68" s="49" t="s">
         <v>267</v>
       </c>
@@ -19455,10 +19451,10 @@
     </row>
     <row r="69" spans="1:14" ht="53.1" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>57</v>
@@ -19476,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="175" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="159">
@@ -19492,10 +19488,10 @@
     </row>
     <row r="70" spans="1:14" ht="53.1" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>12</v>
@@ -19513,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="172" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="159">
@@ -20004,10 +20000,10 @@
     </row>
     <row r="84" spans="1:13" ht="45.6" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>57</v>
@@ -20025,7 +20021,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8">
@@ -20039,10 +20035,10 @@
     </row>
     <row r="85" spans="1:13" ht="37.5">
       <c r="A85" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>57</v>
@@ -20060,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8">
@@ -20074,10 +20070,10 @@
     </row>
     <row r="86" spans="1:13" ht="43.15" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>57</v>
@@ -20095,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8">
@@ -20109,10 +20105,10 @@
     </row>
     <row r="87" spans="1:13" ht="43.15" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>57</v>
@@ -20130,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8">
@@ -20144,10 +20140,10 @@
     </row>
     <row r="88" spans="1:13" ht="43.15" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>12</v>
@@ -20161,7 +20157,7 @@
       <c r="F88" s="167"/>
       <c r="G88" s="167"/>
       <c r="H88" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8">
@@ -20175,10 +20171,10 @@
     </row>
     <row r="89" spans="1:13" ht="43.15" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>12</v>
@@ -20196,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8">
@@ -20210,10 +20206,10 @@
     </row>
     <row r="90" spans="1:13" ht="43.15" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>12</v>
@@ -20231,7 +20227,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8">
@@ -20245,10 +20241,10 @@
     </row>
     <row r="91" spans="1:13" ht="43.15" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>12</v>
@@ -20266,7 +20262,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8">
@@ -20280,10 +20276,10 @@
     </row>
     <row r="92" spans="1:13" ht="43.15" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>12</v>
@@ -20301,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8">
@@ -20315,10 +20311,10 @@
     </row>
     <row r="93" spans="1:13" ht="42.6" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>12</v>
@@ -20336,7 +20332,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8">
@@ -20757,10 +20753,10 @@
     </row>
     <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>57</v>
@@ -20778,7 +20774,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="172" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>54</v>
@@ -20796,10 +20792,10 @@
     </row>
     <row r="106" spans="1:13" ht="37.5">
       <c r="A106" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>57</v>
@@ -20817,7 +20813,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="172" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>54</v>
@@ -20835,10 +20831,10 @@
     </row>
     <row r="107" spans="1:13" ht="56.25">
       <c r="A107" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>57</v>
@@ -20856,7 +20852,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="172" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>54</v>
@@ -20874,10 +20870,10 @@
     </row>
     <row r="108" spans="1:13" ht="37.5">
       <c r="A108" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>12</v>
@@ -20895,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="175" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I108" s="8" t="s">
         <v>54</v>
@@ -22250,10 +22246,10 @@
     </row>
     <row r="144" spans="1:14" ht="39.6" customHeight="1">
       <c r="A144" s="75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B144" s="75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>57</v>
@@ -22271,7 +22267,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I144" s="75" t="s">
         <v>54</v>
@@ -22290,10 +22286,10 @@
     </row>
     <row r="145" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A145" s="75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B145" s="75" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>57</v>
@@ -22311,7 +22307,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I145" s="75" t="s">
         <v>54</v>
@@ -22330,10 +22326,10 @@
     </row>
     <row r="146" spans="1:14" ht="22.9" customHeight="1">
       <c r="A146" s="75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>57</v>
@@ -22351,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I146" s="75" t="s">
         <v>54</v>
@@ -22370,10 +22366,10 @@
     </row>
     <row r="147" spans="1:14" ht="22.9" customHeight="1">
       <c r="A147" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>573</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>57</v>
@@ -22391,7 +22387,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I147" s="75" t="s">
         <v>54</v>
@@ -22410,10 +22406,10 @@
     </row>
     <row r="148" spans="1:14" ht="22.9" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>57</v>
@@ -22431,7 +22427,7 @@
         <v>1</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>54</v>
@@ -24333,13 +24329,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="195" t="s">
+      <c r="A43" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="196"/>
-      <c r="E43" s="197"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -27836,13 +27832,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="170" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B1" s="170" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -27850,7 +27846,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" s="51">
         <v>51.09</v>
@@ -27861,7 +27857,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="179" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C3" s="51">
         <v>347.71</v>
@@ -27872,7 +27868,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C4" s="51">
         <v>625.92999999999995</v>
@@ -27883,7 +27879,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" s="51">
         <v>714.69</v>
@@ -27894,7 +27890,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C6" s="51">
         <v>575.15</v>
@@ -27905,7 +27901,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="51">
         <v>837.25</v>
@@ -27916,7 +27912,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C8" s="180">
         <v>565.07000000000005</v>
@@ -27927,7 +27923,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C9" s="170">
         <v>0</v>
@@ -27938,7 +27934,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="181" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C10" s="180">
         <v>712.33</v>
@@ -27982,7 +27978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" s="182">
         <v>647.20000000000005</v>
@@ -27993,7 +27989,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="181" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C15" s="51">
         <v>806.89</v>
@@ -28004,7 +28000,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="181" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C16" s="51">
         <v>333.94</v>
@@ -28037,7 +28033,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="179" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C19" s="51">
         <v>711.02</v>
@@ -28070,7 +28066,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="179" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C22" s="51">
         <v>268.24</v>
@@ -28136,7 +28132,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="181" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C28" s="51">
         <v>0</v>
@@ -28147,7 +28143,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="179" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C29" s="170">
         <v>0</v>
@@ -28158,7 +28154,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="179" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C30" s="170">
         <v>0</v>
@@ -28169,7 +28165,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="179" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C31" s="170">
         <v>0</v>
@@ -28180,7 +28176,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="179" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C32" s="170">
         <v>0</v>
@@ -28191,7 +28187,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C33" s="170">
         <v>0</v>
@@ -28202,7 +28198,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="179" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C34" s="170">
         <v>0</v>
@@ -28213,7 +28209,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="179" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C35" s="170">
         <v>0</v>
@@ -28224,7 +28220,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="179" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C36" s="170">
         <v>0</v>
@@ -28235,7 +28231,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="179" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C37" s="170">
         <v>0</v>
@@ -28246,7 +28242,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="179" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C38" s="170">
         <v>0</v>
@@ -28257,7 +28253,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="179" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C39" s="170">
         <v>0</v>
@@ -30120,12 +30116,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="198" t="s">
+      <c r="A43" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="19"/>
       <c r="F43" s="142">
         <f>SUM(F2:F42)</f>

--- a/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
@@ -23,13 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$J$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Netrokona!$A$1:$O$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sunamgonj!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Habiganj_Categorical_Projection!$A$1:$P$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HaorCode!$A$1:$B$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Hobiganj!$A$1:$N$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Kishoregnj!$A$1:$O$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Kishoregnj!$A$1:$O$155</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Netrokona!$A$1:$S$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Structure_Type!$A$1:$C$16</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="576">
   <si>
     <t>Package Name</t>
   </si>
@@ -2134,7 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2681,6 +2681,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16804,15 +16824,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
@@ -17119,39 +17139,39 @@
       <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="172" t="s">
         <v>503</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="172" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="165">
-        <v>1</v>
-      </c>
-      <c r="E8" s="165">
-        <v>155.51144882000003</v>
-      </c>
-      <c r="F8" s="167">
-        <v>1</v>
-      </c>
-      <c r="G8" s="167">
-        <v>1</v>
-      </c>
-      <c r="H8" s="173" t="s">
+      <c r="D8" s="189">
+        <v>1</v>
+      </c>
+      <c r="E8" s="189">
+        <v>123.81</v>
+      </c>
+      <c r="F8" s="190">
+        <v>1</v>
+      </c>
+      <c r="G8" s="190">
+        <v>1</v>
+      </c>
+      <c r="H8" s="172" t="s">
         <v>504</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="159">
+      <c r="I8" s="191"/>
+      <c r="J8" s="192">
         <v>3</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="193"/>
+      <c r="L8" s="172" t="s">
         <v>259</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N8" s="47"/>
@@ -17392,330 +17412,330 @@
       <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="172" t="s">
         <v>493</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="167">
-        <v>1</v>
-      </c>
-      <c r="E15" s="165">
-        <v>155.51140000000001</v>
-      </c>
-      <c r="F15" s="167">
-        <v>1</v>
-      </c>
-      <c r="G15" s="167">
-        <v>1</v>
-      </c>
-      <c r="H15" s="173" t="s">
+      <c r="D15" s="190">
+        <v>1</v>
+      </c>
+      <c r="E15" s="189">
+        <v>180.84</v>
+      </c>
+      <c r="F15" s="190">
+        <v>1</v>
+      </c>
+      <c r="G15" s="190">
+        <v>1</v>
+      </c>
+      <c r="H15" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="159">
+      <c r="I15" s="191"/>
+      <c r="J15" s="192">
         <v>3</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="193"/>
+      <c r="L15" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="172" t="s">
         <v>494</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="167">
+      <c r="D16" s="190">
         <v>10.382999999999999</v>
       </c>
-      <c r="E16" s="165">
-        <v>247.12549999999999</v>
-      </c>
-      <c r="F16" s="167">
-        <v>1</v>
-      </c>
-      <c r="G16" s="167">
-        <v>1</v>
-      </c>
-      <c r="H16" s="173" t="s">
+      <c r="E16" s="189">
+        <v>236.03</v>
+      </c>
+      <c r="F16" s="190">
+        <v>1</v>
+      </c>
+      <c r="G16" s="190">
+        <v>1</v>
+      </c>
+      <c r="H16" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="159">
+      <c r="I16" s="191"/>
+      <c r="J16" s="192">
         <v>11</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="193"/>
+      <c r="L16" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="172" t="s">
         <v>416</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="165">
-        <v>286.82060000000001</v>
-      </c>
-      <c r="F17" s="167">
-        <v>1</v>
-      </c>
-      <c r="G17" s="167">
-        <v>1</v>
-      </c>
-      <c r="H17" s="173" t="s">
+      <c r="D17" s="190"/>
+      <c r="E17" s="189">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="F17" s="190">
+        <v>1</v>
+      </c>
+      <c r="G17" s="190">
+        <v>1</v>
+      </c>
+      <c r="H17" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="159">
+      <c r="I17" s="191"/>
+      <c r="J17" s="192">
         <v>11</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="193"/>
+      <c r="L17" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="202" t="s">
         <v>490</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="203" t="s">
         <v>491</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="165">
-        <v>1</v>
-      </c>
-      <c r="E18" s="165">
-        <v>97.957868087170013</v>
-      </c>
-      <c r="F18" s="167">
-        <v>1</v>
-      </c>
-      <c r="G18" s="167">
-        <v>1</v>
-      </c>
-      <c r="H18" s="173" t="s">
+      <c r="D18" s="204">
+        <v>1</v>
+      </c>
+      <c r="E18" s="204">
+        <v>97.3</v>
+      </c>
+      <c r="F18" s="205">
+        <v>1</v>
+      </c>
+      <c r="G18" s="205">
+        <v>1</v>
+      </c>
+      <c r="H18" s="203" t="s">
         <v>489</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="159">
+      <c r="I18" s="206"/>
+      <c r="J18" s="207">
         <v>3</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="8" t="s">
+      <c r="K18" s="208"/>
+      <c r="L18" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="209" t="s">
         <v>362</v>
       </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="202" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="203" t="s">
         <v>492</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="165">
-        <v>1</v>
-      </c>
-      <c r="E19" s="165">
-        <v>97.957868087170013</v>
-      </c>
-      <c r="F19" s="167">
-        <v>1</v>
-      </c>
-      <c r="G19" s="167">
-        <v>1</v>
-      </c>
-      <c r="H19" s="173" t="s">
+      <c r="D19" s="204">
+        <v>1</v>
+      </c>
+      <c r="E19" s="204">
+        <v>97.3</v>
+      </c>
+      <c r="F19" s="205">
+        <v>1</v>
+      </c>
+      <c r="G19" s="205">
+        <v>1</v>
+      </c>
+      <c r="H19" s="203" t="s">
         <v>489</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="159">
+      <c r="I19" s="206"/>
+      <c r="J19" s="207">
         <v>3</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="8" t="s">
+      <c r="K19" s="208"/>
+      <c r="L19" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="209" t="s">
         <v>362</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="202" t="s">
         <v>490</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="203" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="165">
-        <v>1</v>
-      </c>
-      <c r="E20" s="165">
-        <v>257.73</v>
-      </c>
-      <c r="F20" s="167">
-        <v>1</v>
-      </c>
-      <c r="G20" s="167">
-        <v>1</v>
-      </c>
-      <c r="H20" s="173" t="s">
+      <c r="D20" s="204">
+        <v>1</v>
+      </c>
+      <c r="E20" s="204">
+        <v>254.37</v>
+      </c>
+      <c r="F20" s="205">
+        <v>1</v>
+      </c>
+      <c r="G20" s="205">
+        <v>1</v>
+      </c>
+      <c r="H20" s="203" t="s">
         <v>489</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="159">
+      <c r="I20" s="206"/>
+      <c r="J20" s="207">
         <v>3</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="8" t="s">
+      <c r="K20" s="208"/>
+      <c r="L20" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="209" t="s">
         <v>362</v>
       </c>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="202" t="s">
         <v>490</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="203" t="s">
         <v>488</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="165">
+      <c r="D21" s="204">
         <v>6.4710000000000001</v>
       </c>
-      <c r="E21" s="165">
-        <v>256.87133634355001</v>
-      </c>
-      <c r="F21" s="167">
-        <v>1</v>
-      </c>
-      <c r="G21" s="167">
-        <v>1</v>
-      </c>
-      <c r="H21" s="173" t="s">
+      <c r="E21" s="204">
+        <v>121.63</v>
+      </c>
+      <c r="F21" s="205">
+        <v>1</v>
+      </c>
+      <c r="G21" s="205">
+        <v>1</v>
+      </c>
+      <c r="H21" s="203" t="s">
         <v>489</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="159">
+      <c r="I21" s="206"/>
+      <c r="J21" s="207">
         <v>11</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="8" t="s">
+      <c r="K21" s="208"/>
+      <c r="L21" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="209" t="s">
         <v>362</v>
       </c>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="165">
-        <v>1</v>
-      </c>
-      <c r="E22" s="165">
-        <v>190.22</v>
-      </c>
-      <c r="F22" s="167">
-        <v>1</v>
-      </c>
-      <c r="G22" s="167">
-        <v>1</v>
-      </c>
-      <c r="H22" s="173" t="s">
-        <v>486</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="159">
-        <v>3</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="8" t="s">
+      <c r="A22" s="202" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="204">
+        <v>1</v>
+      </c>
+      <c r="E22" s="204">
+        <v>143.38999999999999</v>
+      </c>
+      <c r="F22" s="205">
+        <v>1</v>
+      </c>
+      <c r="G22" s="205">
+        <v>1</v>
+      </c>
+      <c r="H22" s="203" t="s">
+        <v>489</v>
+      </c>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207">
+        <v>11</v>
+      </c>
+      <c r="K22" s="208"/>
+      <c r="L22" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="209" t="s">
         <v>362</v>
       </c>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
     </row>
-    <row r="23" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
+    <row r="23" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>485</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
+        <v>478</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="165">
-        <v>1.6970000000000001</v>
+        <v>1</v>
       </c>
       <c r="E23" s="165">
-        <v>35.281961160000002</v>
+        <v>190.22</v>
       </c>
       <c r="F23" s="167">
         <v>1</v>
@@ -17728,7 +17748,7 @@
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="159">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="8" t="s">
@@ -17745,16 +17765,16 @@
         <v>485</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="165">
-        <v>8.2999999999999963E-2</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="E24" s="165">
-        <v>4.0969036680000004</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="F24" s="167">
         <v>1</v>
@@ -17784,19 +17804,19 @@
         <v>485</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="165">
-        <v>0.58999999999999986</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="E25" s="165">
-        <v>8.7692750109999995</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="F25" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="167">
         <v>1</v>
@@ -17823,19 +17843,19 @@
         <v>485</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="165">
-        <v>7.4940000000000007</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="E26" s="165">
-        <v>156.82266490000001</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="F26" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="167">
         <v>1</v>
@@ -17862,16 +17882,16 @@
         <v>485</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="165">
-        <v>1.4989999999999988</v>
+        <v>7.4940000000000007</v>
       </c>
       <c r="E27" s="165">
-        <v>28.94815608</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="F27" s="167">
         <v>1</v>
@@ -17896,21 +17916,21 @@
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
     </row>
-    <row r="28" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="28" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>485</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="165">
-        <v>0.85099999999999909</v>
+        <v>1.4989999999999988</v>
       </c>
       <c r="E28" s="165">
-        <v>17.898320479999999</v>
+        <v>28.94815608</v>
       </c>
       <c r="F28" s="167">
         <v>1</v>
@@ -17935,21 +17955,21 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
+    <row r="29" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>485</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="165">
-        <v>12.214</v>
+        <v>0.85099999999999909</v>
       </c>
       <c r="E29" s="165">
-        <v>325.54000000000002</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="F29" s="167">
         <v>1</v>
@@ -17974,21 +17994,21 @@
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>476</v>
+    <row r="30" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D30" s="165">
-        <v>1</v>
+        <v>12.214</v>
       </c>
       <c r="E30" s="165">
-        <v>227.88187738937</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="F30" s="167">
         <v>1</v>
@@ -17997,11 +18017,11 @@
         <v>1</v>
       </c>
       <c r="H30" s="173" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="159">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="8" t="s">
@@ -18017,56 +18037,56 @@
       <c r="A31" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="172" t="s">
-        <v>470</v>
-      </c>
-      <c r="C31" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="189">
-        <v>4</v>
-      </c>
-      <c r="E31" s="189">
-        <v>41.55</v>
-      </c>
-      <c r="F31" s="190">
-        <v>1</v>
-      </c>
-      <c r="G31" s="190">
-        <v>1</v>
-      </c>
-      <c r="H31" s="172" t="s">
+      <c r="B31" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="165">
+        <v>1</v>
+      </c>
+      <c r="E31" s="165">
+        <v>227.88187738937</v>
+      </c>
+      <c r="F31" s="167">
+        <v>1</v>
+      </c>
+      <c r="G31" s="167">
+        <v>1</v>
+      </c>
+      <c r="H31" s="173" t="s">
         <v>477</v>
       </c>
-      <c r="I31" s="191"/>
-      <c r="J31" s="192">
-        <v>7</v>
-      </c>
-      <c r="K31" s="193"/>
-      <c r="L31" s="172" t="s">
+      <c r="I31" s="20"/>
+      <c r="J31" s="159">
+        <v>3</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M31" s="194" t="s">
+      <c r="M31" s="11" t="s">
         <v>362</v>
       </c>
       <c r="N31" s="47"/>
       <c r="O31" s="47"/>
     </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
+      <c r="A32" s="172" t="s">
         <v>476</v>
       </c>
       <c r="B32" s="172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C32" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="189">
-        <v>3.43</v>
+        <v>4</v>
       </c>
       <c r="E32" s="189">
-        <v>69.7</v>
+        <v>41.55</v>
       </c>
       <c r="F32" s="190">
         <v>1</v>
@@ -18092,20 +18112,20 @@
       <c r="O32" s="47"/>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="172" t="s">
         <v>476</v>
       </c>
       <c r="B33" s="172" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C33" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="189">
-        <v>0.9</v>
+        <v>3.43</v>
       </c>
       <c r="E33" s="189">
-        <v>23.7</v>
+        <v>69.7</v>
       </c>
       <c r="F33" s="190">
         <v>1</v>
@@ -18131,20 +18151,20 @@
       <c r="O33" s="47"/>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="172" t="s">
         <v>476</v>
       </c>
       <c r="B34" s="172" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C34" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="189">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E34" s="189">
-        <v>10.039999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="F34" s="190">
         <v>1</v>
@@ -18170,20 +18190,20 @@
       <c r="O34" s="47"/>
     </row>
     <row r="35" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="172" t="s">
         <v>476</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C35" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="189">
-        <v>7.07</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="189">
-        <v>356.51</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="F35" s="190">
         <v>1</v>
@@ -18209,20 +18229,20 @@
       <c r="O35" s="47"/>
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="172" t="s">
         <v>476</v>
       </c>
       <c r="B36" s="172" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C36" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="189">
-        <v>3.56</v>
-      </c>
-      <c r="E36" s="189" t="s">
-        <v>573</v>
+        <v>7.07</v>
+      </c>
+      <c r="E36" s="189">
+        <v>356.51</v>
       </c>
       <c r="F36" s="190">
         <v>1</v>
@@ -18248,39 +18268,39 @@
       <c r="O36" s="47"/>
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="172" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37" s="172" t="s">
+        <v>475</v>
+      </c>
+      <c r="C37" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="168">
-        <v>1.73</v>
-      </c>
-      <c r="E37" s="165">
-        <v>20.549423050000001</v>
-      </c>
-      <c r="F37" s="167">
-        <v>0</v>
-      </c>
-      <c r="G37" s="167">
-        <v>0</v>
-      </c>
-      <c r="H37" s="173" t="s">
-        <v>466</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="159">
+      <c r="D37" s="189">
+        <v>3.56</v>
+      </c>
+      <c r="E37" s="189" t="s">
+        <v>573</v>
+      </c>
+      <c r="F37" s="190">
+        <v>1</v>
+      </c>
+      <c r="G37" s="190">
+        <v>1</v>
+      </c>
+      <c r="H37" s="172" t="s">
+        <v>477</v>
+      </c>
+      <c r="I37" s="191"/>
+      <c r="J37" s="192">
         <v>7</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M37" s="11" t="s">
+      <c r="K37" s="193"/>
+      <c r="L37" s="172" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" s="194" t="s">
         <v>362</v>
       </c>
       <c r="N37" s="47"/>
@@ -18291,22 +18311,22 @@
         <v>467</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="169">
-        <v>1.615</v>
+      <c r="D38" s="168">
+        <v>1.73</v>
       </c>
       <c r="E38" s="165">
-        <v>26.078112170000001</v>
+        <v>20.549423050000001</v>
       </c>
       <c r="F38" s="167">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="G38" s="167">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="H38" s="173" t="s">
         <v>466</v>
@@ -18330,22 +18350,22 @@
         <v>467</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="169">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="E39" s="165">
-        <v>46.887345910000001</v>
+        <v>26.078112170000001</v>
       </c>
       <c r="F39" s="167">
-        <v>0.4</v>
+        <v>2.16</v>
       </c>
       <c r="G39" s="167">
-        <v>0.4</v>
+        <v>2.16</v>
       </c>
       <c r="H39" s="173" t="s">
         <v>466</v>
@@ -18369,22 +18389,22 @@
         <v>467</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="169">
-        <v>6.8540000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E40" s="165">
-        <v>130.11837389999999</v>
+        <v>46.887345910000001</v>
       </c>
       <c r="F40" s="167">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G40" s="167">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H40" s="173" t="s">
         <v>466</v>
@@ -18408,16 +18428,16 @@
         <v>467</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="169">
-        <v>6.1</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="E41" s="165">
-        <v>120.33133599999999</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="F41" s="167">
         <v>1</v>
@@ -18447,19 +18467,19 @@
         <v>467</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="169">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="E42" s="165">
-        <v>424.00323129999998</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="F42" s="167">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G42" s="167">
         <v>1</v>
@@ -18486,22 +18506,22 @@
         <v>467</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="169">
-        <v>10.86</v>
+        <v>5.7</v>
       </c>
       <c r="E43" s="165">
-        <v>197.63842210000001</v>
-      </c>
-      <c r="F43" s="176">
-        <v>0</v>
-      </c>
-      <c r="G43" s="176">
-        <v>0</v>
+        <v>424.00323129999998</v>
+      </c>
+      <c r="F43" s="167">
+        <v>0.65</v>
+      </c>
+      <c r="G43" s="167">
+        <v>1</v>
       </c>
       <c r="H43" s="173" t="s">
         <v>466</v>
@@ -18520,34 +18540,34 @@
       <c r="N43" s="47"/>
       <c r="O43" s="47"/>
     </row>
-    <row r="44" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="44" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>467</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="165">
-        <v>3.879</v>
+      <c r="D44" s="169">
+        <v>10.86</v>
       </c>
       <c r="E44" s="165">
-        <v>35.33</v>
-      </c>
-      <c r="F44" s="167">
-        <v>0.08</v>
-      </c>
-      <c r="G44" s="167">
-        <v>0.2</v>
+        <v>197.63842210000001</v>
+      </c>
+      <c r="F44" s="176">
+        <v>0</v>
+      </c>
+      <c r="G44" s="176">
+        <v>0</v>
       </c>
       <c r="H44" s="173" t="s">
         <v>466</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="159">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K44" s="21"/>
       <c r="L44" s="8" t="s">
@@ -18559,25 +18579,27 @@
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
     </row>
-    <row r="45" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
+    <row r="45" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>467</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="165"/>
+      <c r="D45" s="165">
+        <v>3.879</v>
+      </c>
       <c r="E45" s="165">
-        <v>55.74</v>
-      </c>
-      <c r="F45" s="177">
-        <v>0</v>
-      </c>
-      <c r="G45" s="177">
-        <v>1</v>
+        <v>35.33</v>
+      </c>
+      <c r="F45" s="167">
+        <v>0.08</v>
+      </c>
+      <c r="G45" s="167">
+        <v>0.2</v>
       </c>
       <c r="H45" s="173" t="s">
         <v>466</v>
@@ -18596,51 +18618,49 @@
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
     </row>
-    <row r="46" spans="1:15" s="14" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A46" s="172" t="s">
-        <v>443</v>
-      </c>
-      <c r="B46" s="172" t="s">
-        <v>444</v>
-      </c>
-      <c r="C46" s="172" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="189">
-        <v>1</v>
-      </c>
-      <c r="E46" s="189">
-        <v>210.83</v>
-      </c>
-      <c r="F46" s="190">
-        <v>1</v>
-      </c>
-      <c r="G46" s="190">
-        <v>1</v>
-      </c>
-      <c r="H46" s="172" t="s">
-        <v>447</v>
-      </c>
-      <c r="I46" s="191"/>
-      <c r="J46" s="192">
-        <v>5</v>
-      </c>
-      <c r="K46" s="193"/>
-      <c r="L46" s="172" t="s">
+    <row r="46" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165">
+        <v>55.74</v>
+      </c>
+      <c r="F46" s="177">
+        <v>0</v>
+      </c>
+      <c r="G46" s="177">
+        <v>1</v>
+      </c>
+      <c r="H46" s="173" t="s">
+        <v>466</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="159">
+        <v>11</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="M46" s="194" t="s">
+      <c r="M46" s="11" t="s">
         <v>362</v>
       </c>
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
     </row>
-    <row r="47" spans="1:15" ht="53.1" customHeight="1">
+    <row r="47" spans="1:15" s="14" customFormat="1" ht="52.5" customHeight="1">
       <c r="A47" s="172" t="s">
         <v>443</v>
       </c>
       <c r="B47" s="172" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C47" s="172" t="s">
         <v>57</v>
@@ -18649,7 +18669,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="189">
-        <v>176.64</v>
+        <v>210.83</v>
       </c>
       <c r="F47" s="190">
         <v>1</v>
@@ -18671,13 +18691,15 @@
       <c r="M47" s="194" t="s">
         <v>362</v>
       </c>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
     </row>
     <row r="48" spans="1:15" ht="53.1" customHeight="1">
       <c r="A48" s="172" t="s">
         <v>443</v>
       </c>
       <c r="B48" s="172" t="s">
-        <v>574</v>
+        <v>442</v>
       </c>
       <c r="C48" s="172" t="s">
         <v>57</v>
@@ -18686,7 +18708,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="189">
-        <v>66.64</v>
+        <v>176.64</v>
       </c>
       <c r="F48" s="190">
         <v>1</v>
@@ -18699,7 +18721,7 @@
       </c>
       <c r="I48" s="191"/>
       <c r="J48" s="192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="193"/>
       <c r="L48" s="172" t="s">
@@ -18714,7 +18736,7 @@
         <v>443</v>
       </c>
       <c r="B49" s="172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C49" s="172" t="s">
         <v>57</v>
@@ -18723,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="189">
-        <v>241.26</v>
+        <v>66.64</v>
       </c>
       <c r="F49" s="190">
         <v>1</v>
@@ -18736,7 +18758,7 @@
       </c>
       <c r="I49" s="191"/>
       <c r="J49" s="192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" s="193"/>
       <c r="L49" s="172" t="s">
@@ -18747,39 +18769,39 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="53.1" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" s="172" t="s">
+        <v>575</v>
+      </c>
+      <c r="C50" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="165">
-        <v>1</v>
-      </c>
-      <c r="E50" s="165">
-        <v>137.35</v>
-      </c>
-      <c r="F50" s="167">
-        <v>0</v>
-      </c>
-      <c r="G50" s="167">
-        <v>0.65</v>
-      </c>
-      <c r="H50" s="174" t="s">
-        <v>439</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="159">
-        <v>3</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="L50" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="M50" s="11" t="s">
+      <c r="D50" s="189">
+        <v>1</v>
+      </c>
+      <c r="E50" s="189">
+        <v>241.26</v>
+      </c>
+      <c r="F50" s="190">
+        <v>1</v>
+      </c>
+      <c r="G50" s="190">
+        <v>1</v>
+      </c>
+      <c r="H50" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="I50" s="191"/>
+      <c r="J50" s="192">
+        <v>5</v>
+      </c>
+      <c r="K50" s="193"/>
+      <c r="L50" s="172" t="s">
+        <v>263</v>
+      </c>
+      <c r="M50" s="194" t="s">
         <v>362</v>
       </c>
     </row>
@@ -18788,7 +18810,7 @@
         <v>441</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>437</v>
+        <v>201</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>57</v>
@@ -18797,15 +18819,15 @@
         <v>1</v>
       </c>
       <c r="E51" s="165">
-        <v>128.66999999999999</v>
+        <v>137.35</v>
       </c>
       <c r="F51" s="167">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G51" s="167">
-        <v>1</v>
-      </c>
-      <c r="H51" s="172" t="s">
+        <v>0.65</v>
+      </c>
+      <c r="H51" s="174" t="s">
         <v>439</v>
       </c>
       <c r="I51" s="20"/>
@@ -18820,24 +18842,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1">
+    <row r="52" spans="1:13" ht="53.1" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>441</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D52" s="165">
-        <v>11.75</v>
+        <v>1</v>
       </c>
       <c r="E52" s="165">
-        <v>274.06</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="F52" s="167">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="G52" s="167">
         <v>1</v>
@@ -18847,7 +18869,7 @@
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="159">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K52" s="21"/>
       <c r="L52" s="8" t="s">
@@ -18857,27 +18879,29 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1">
+    <row r="53" spans="1:13" ht="61.15" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="167"/>
+      <c r="D53" s="165">
+        <v>11.75</v>
+      </c>
       <c r="E53" s="165">
-        <v>343.88</v>
-      </c>
-      <c r="F53" s="177">
-        <v>1</v>
-      </c>
-      <c r="G53" s="177">
-        <v>1</v>
-      </c>
-      <c r="H53" s="118" t="s">
+        <v>274.06</v>
+      </c>
+      <c r="F53" s="167">
+        <v>0.64</v>
+      </c>
+      <c r="G53" s="167">
+        <v>1</v>
+      </c>
+      <c r="H53" s="172" t="s">
         <v>439</v>
       </c>
       <c r="I53" s="20"/>
@@ -18894,32 +18918,30 @@
     </row>
     <row r="54" spans="1:13" ht="58.15" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="165">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D54" s="167"/>
       <c r="E54" s="165">
-        <v>274.49</v>
-      </c>
-      <c r="F54" s="167">
-        <v>0.95</v>
-      </c>
-      <c r="G54" s="167">
-        <v>1</v>
-      </c>
-      <c r="H54" s="172" t="s">
-        <v>436</v>
+        <v>343.88</v>
+      </c>
+      <c r="F54" s="177">
+        <v>1</v>
+      </c>
+      <c r="G54" s="177">
+        <v>1</v>
+      </c>
+      <c r="H54" s="118" t="s">
+        <v>439</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="159">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="8" t="s">
@@ -18929,24 +18951,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="49.5" customHeight="1">
+    <row r="55" spans="1:13" ht="58.15" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>440</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D55" s="165">
-        <v>10.86</v>
+        <v>1</v>
       </c>
       <c r="E55" s="165">
-        <v>557.63</v>
+        <v>274.49</v>
       </c>
       <c r="F55" s="167">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G55" s="167">
         <v>1</v>
@@ -18956,7 +18978,7 @@
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="159">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="8" t="s">
@@ -18966,34 +18988,34 @@
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="52.5" customHeight="1">
+    <row r="56" spans="1:13" ht="49.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D56" s="165">
-        <v>1</v>
+        <v>10.86</v>
       </c>
       <c r="E56" s="165">
-        <v>253.89347740292999</v>
+        <v>557.63</v>
       </c>
       <c r="F56" s="167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="167">
         <v>1</v>
       </c>
       <c r="H56" s="172" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="159">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="8" t="s">
@@ -19003,12 +19025,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="56.1" customHeight="1">
+    <row r="57" spans="1:13" ht="52.5" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>428</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>57</v>
@@ -19017,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="165">
-        <v>277.03648500093004</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="F57" s="167">
         <v>1</v>
@@ -19040,34 +19062,34 @@
         <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5" customHeight="1">
+    <row r="58" spans="1:13" ht="56.1" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>428</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D58" s="165">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="E58" s="165">
-        <v>18.396996112980002</v>
+        <v>277.03648500093004</v>
       </c>
       <c r="F58" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="167">
-        <v>0</v>
-      </c>
-      <c r="H58" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="172" t="s">
         <v>429</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="159">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="8" t="s">
@@ -19082,24 +19104,24 @@
         <v>428</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="165">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="E59" s="165">
-        <v>4.3979713727399998</v>
+        <v>18.396996112980002</v>
       </c>
       <c r="F59" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="167">
-        <v>1</v>
-      </c>
-      <c r="H59" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="175" t="s">
         <v>429</v>
       </c>
       <c r="I59" s="20"/>
@@ -19119,16 +19141,16 @@
         <v>428</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="165">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="E60" s="165">
-        <v>99.257006847780005</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="F60" s="167">
         <v>1</v>
@@ -19156,16 +19178,16 @@
         <v>428</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="165">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E61" s="165">
-        <v>110.69451403344002</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="F61" s="167">
         <v>1</v>
@@ -19193,16 +19215,16 @@
         <v>428</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="165">
-        <v>0.36699999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="E62" s="165">
-        <v>167.98399198379997</v>
+        <v>110.69451403344002</v>
       </c>
       <c r="F62" s="167">
         <v>1</v>
@@ -19210,7 +19232,7 @@
       <c r="G62" s="167">
         <v>1</v>
       </c>
-      <c r="H62" s="118" t="s">
+      <c r="H62" s="172" t="s">
         <v>429</v>
       </c>
       <c r="I62" s="20"/>
@@ -19227,208 +19249,207 @@
     </row>
     <row r="63" spans="1:13" ht="43.5" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D63" s="165">
-        <v>1</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="E63" s="165">
-        <v>232.96</v>
+        <v>167.98399198379997</v>
       </c>
       <c r="F63" s="167">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" s="167">
         <v>1</v>
       </c>
-      <c r="H63" s="175" t="s">
-        <v>456</v>
+      <c r="H63" s="118" t="s">
+        <v>429</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="159">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K63" s="21"/>
       <c r="L63" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M63" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="172" t="s">
         <v>455</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="172" t="s">
+        <v>458</v>
+      </c>
+      <c r="C64" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="189">
+        <v>1</v>
+      </c>
+      <c r="E64" s="189">
+        <v>224.08</v>
+      </c>
+      <c r="F64" s="190">
+        <v>0.95</v>
+      </c>
+      <c r="G64" s="190">
+        <v>1</v>
+      </c>
+      <c r="H64" s="172" t="s">
+        <v>456</v>
+      </c>
+      <c r="I64" s="191"/>
+      <c r="J64" s="192">
+        <v>3</v>
+      </c>
+      <c r="K64" s="193"/>
+      <c r="L64" s="172" t="s">
+        <v>267</v>
+      </c>
+      <c r="M64" s="194" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="43.5" customHeight="1">
+      <c r="A65" s="172" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" s="172" t="s">
         <v>457</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="165">
-        <v>1</v>
-      </c>
-      <c r="E64" s="165">
-        <v>193</v>
-      </c>
-      <c r="F64" s="167">
+      <c r="D65" s="189">
+        <v>1</v>
+      </c>
+      <c r="E65" s="189">
+        <v>196.52</v>
+      </c>
+      <c r="F65" s="190">
         <v>0.95</v>
       </c>
-      <c r="G64" s="167">
-        <v>1</v>
-      </c>
-      <c r="H64" s="175" t="s">
+      <c r="G65" s="190">
+        <v>1</v>
+      </c>
+      <c r="H65" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="159">
+      <c r="I65" s="191"/>
+      <c r="J65" s="192">
         <v>3</v>
       </c>
-      <c r="K64" s="21"/>
-      <c r="L64" s="8" t="s">
+      <c r="K65" s="193"/>
+      <c r="L65" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M65" s="194" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="53.1" customHeight="1">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:14" ht="53.1" customHeight="1">
+      <c r="A66" s="172" t="s">
         <v>455</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="172" t="s">
         <v>454</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="165">
+      <c r="D66" s="189">
         <v>10</v>
       </c>
-      <c r="E65" s="165">
-        <v>576.66999999999996</v>
-      </c>
-      <c r="F65" s="167">
+      <c r="E66" s="189">
+        <v>489.17598947869993</v>
+      </c>
+      <c r="F66" s="190">
         <v>0.4</v>
       </c>
-      <c r="G65" s="167">
-        <v>1</v>
-      </c>
-      <c r="H65" s="175" t="s">
+      <c r="G66" s="190">
+        <v>1</v>
+      </c>
+      <c r="H66" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="159">
+      <c r="I66" s="191"/>
+      <c r="J66" s="192">
         <v>11</v>
       </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="8" t="s">
+      <c r="K66" s="193"/>
+      <c r="L66" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M66" s="194" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="145" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A66" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="B66" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="C66" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="68">
-        <v>1</v>
-      </c>
-      <c r="E66" s="68">
-        <v>263.7</v>
-      </c>
-      <c r="F66" s="195">
-        <v>0.95</v>
-      </c>
-      <c r="G66" s="195">
-        <v>1</v>
-      </c>
-      <c r="H66" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="I66" s="196"/>
-      <c r="J66" s="54">
-        <v>3</v>
-      </c>
-      <c r="K66" s="197"/>
-      <c r="L66" s="49" t="s">
+    <row r="67" spans="1:14" ht="53.1" customHeight="1">
+      <c r="A67" s="172" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67" s="172" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="189">
+        <v>1</v>
+      </c>
+      <c r="E67" s="189">
+        <v>70.98</v>
+      </c>
+      <c r="F67" s="190">
+        <v>0.4</v>
+      </c>
+      <c r="G67" s="190">
+        <v>1</v>
+      </c>
+      <c r="H67" s="172" t="s">
+        <v>456</v>
+      </c>
+      <c r="I67" s="191"/>
+      <c r="J67" s="192">
+        <v>11</v>
+      </c>
+      <c r="K67" s="193"/>
+      <c r="L67" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M66" s="53" t="s">
+      <c r="M67" s="194" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="53.1" customHeight="1">
-      <c r="A67" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="B67" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="68">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E67" s="68">
-        <v>485.98</v>
-      </c>
-      <c r="F67" s="195">
-        <v>0.86</v>
-      </c>
-      <c r="G67" s="195">
-        <v>1</v>
-      </c>
-      <c r="H67" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="I67" s="196"/>
-      <c r="J67" s="54">
-        <v>11</v>
-      </c>
-      <c r="K67" s="197"/>
-      <c r="L67" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="M67" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="N67" s="145"/>
-    </row>
-    <row r="68" spans="1:14" ht="53.1" customHeight="1">
+    <row r="68" spans="1:14" s="145" customFormat="1" ht="53.1" customHeight="1">
       <c r="A68" s="49" t="s">
         <v>452</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D68" s="68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E68" s="68">
-        <v>133.96</v>
+        <v>263.7</v>
       </c>
       <c r="F68" s="195">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G68" s="195">
         <v>1</v>
@@ -19438,7 +19459,7 @@
       </c>
       <c r="I68" s="196"/>
       <c r="J68" s="54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K68" s="197"/>
       <c r="L68" s="49" t="s">
@@ -19447,88 +19468,89 @@
       <c r="M68" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="N68" s="145"/>
     </row>
     <row r="69" spans="1:14" ht="53.1" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="165">
-        <v>1</v>
-      </c>
-      <c r="E69" s="165">
-        <v>166.9</v>
-      </c>
-      <c r="F69" s="167">
+      <c r="A69" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="68">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E69" s="68">
+        <v>485.98</v>
+      </c>
+      <c r="F69" s="195">
+        <v>0.86</v>
+      </c>
+      <c r="G69" s="195">
+        <v>1</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="I69" s="196"/>
+      <c r="J69" s="54">
+        <v>11</v>
+      </c>
+      <c r="K69" s="197"/>
+      <c r="L69" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="M69" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="N69" s="145"/>
+    </row>
+    <row r="70" spans="1:14" ht="53.1" customHeight="1">
+      <c r="A70" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="68">
+        <v>133.96</v>
+      </c>
+      <c r="F70" s="195">
         <v>0</v>
       </c>
-      <c r="G69" s="167">
-        <v>0</v>
-      </c>
-      <c r="H69" s="175" t="s">
-        <v>448</v>
-      </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="159">
-        <v>3</v>
-      </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="8" t="s">
+      <c r="G70" s="195">
+        <v>1</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="I70" s="196"/>
+      <c r="J70" s="54">
+        <v>11</v>
+      </c>
+      <c r="K70" s="197"/>
+      <c r="L70" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M70" s="53" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="53.1" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="165">
-        <v>9</v>
-      </c>
-      <c r="E70" s="165">
-        <v>616.91999999999996</v>
-      </c>
-      <c r="F70" s="167">
-        <v>1</v>
-      </c>
-      <c r="G70" s="167">
-        <v>1</v>
-      </c>
-      <c r="H70" s="172" t="s">
-        <v>448</v>
-      </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="159">
-        <v>11</v>
-      </c>
-      <c r="K70" s="21"/>
-      <c r="L70" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>362</v>
-      </c>
+      <c r="N70" s="145"/>
     </row>
     <row r="71" spans="1:14" ht="53.1" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>57</v>
@@ -19537,16 +19559,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="165">
-        <v>267.88</v>
+        <v>166.9</v>
       </c>
       <c r="F71" s="167">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="G71" s="167">
-        <v>1</v>
-      </c>
-      <c r="H71" s="172" t="s">
-        <v>433</v>
+        <v>0</v>
+      </c>
+      <c r="H71" s="175" t="s">
+        <v>448</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="159">
@@ -19562,19 +19584,19 @@
     </row>
     <row r="72" spans="1:14" ht="53.1" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D72" s="165">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E72" s="165">
-        <v>343.32</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="F72" s="167">
         <v>1</v>
@@ -19583,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="H72" s="172" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="I72" s="20"/>
-      <c r="J72" s="164">
+      <c r="J72" s="159">
         <v>11</v>
       </c>
       <c r="K72" s="21"/>
@@ -19602,27 +19624,29 @@
         <v>432</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="167"/>
+        <v>57</v>
+      </c>
+      <c r="D73" s="165">
+        <v>1</v>
+      </c>
       <c r="E73" s="165">
-        <v>167.97</v>
+        <v>267.88</v>
       </c>
       <c r="F73" s="167">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G73" s="167">
         <v>1</v>
       </c>
-      <c r="H73" s="118" t="s">
+      <c r="H73" s="172" t="s">
         <v>433</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="159">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K73" s="21"/>
       <c r="L73" s="8" t="s">
@@ -19634,19 +19658,19 @@
     </row>
     <row r="74" spans="1:14" ht="53.1" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D74" s="165">
         <v>1</v>
       </c>
-      <c r="E74" s="166">
-        <v>348.66</v>
+      <c r="E74" s="165">
+        <v>343.32</v>
       </c>
       <c r="F74" s="167">
         <v>1</v>
@@ -19654,14 +19678,14 @@
       <c r="G74" s="167">
         <v>1</v>
       </c>
-      <c r="H74" s="118" t="s">
-        <v>414</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="159">
-        <v>3</v>
-      </c>
-      <c r="K74" s="160"/>
+      <c r="H74" s="172" t="s">
+        <v>433</v>
+      </c>
+      <c r="I74" s="20"/>
+      <c r="J74" s="164">
+        <v>11</v>
+      </c>
+      <c r="K74" s="21"/>
       <c r="L74" s="8" t="s">
         <v>267</v>
       </c>
@@ -19671,19 +19695,17 @@
     </row>
     <row r="75" spans="1:14" ht="53.1" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="165">
-        <v>1</v>
-      </c>
-      <c r="E75" s="166">
-        <v>217.53240973000001</v>
+        <v>12</v>
+      </c>
+      <c r="D75" s="167"/>
+      <c r="E75" s="165">
+        <v>167.97</v>
       </c>
       <c r="F75" s="167">
         <v>1</v>
@@ -19692,13 +19714,13 @@
         <v>1</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>414</v>
-      </c>
-      <c r="I75" s="11"/>
+        <v>433</v>
+      </c>
+      <c r="I75" s="20"/>
       <c r="J75" s="159">
-        <v>3</v>
-      </c>
-      <c r="K75" s="160"/>
+        <v>11</v>
+      </c>
+      <c r="K75" s="21"/>
       <c r="L75" s="8" t="s">
         <v>267</v>
       </c>
@@ -19706,12 +19728,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="62.65" customHeight="1">
+    <row r="76" spans="1:14" ht="53.1" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>186</v>
+        <v>410</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>57</v>
@@ -19720,7 +19742,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="166">
-        <v>35.48865979</v>
+        <v>348.66</v>
       </c>
       <c r="F76" s="167">
         <v>1</v>
@@ -19728,12 +19750,12 @@
       <c r="G76" s="167">
         <v>1</v>
       </c>
-      <c r="H76" s="172" t="s">
+      <c r="H76" s="118" t="s">
         <v>414</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" s="160"/>
       <c r="L76" s="8" t="s">
@@ -19743,12 +19765,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="61.5" customHeight="1">
+    <row r="77" spans="1:14" ht="53.1" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>57</v>
@@ -19757,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="166">
-        <v>35.48865979</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="F77" s="167">
         <v>1</v>
@@ -19765,14 +19787,14 @@
       <c r="G77" s="167">
         <v>1</v>
       </c>
-      <c r="H77" s="172" t="s">
+      <c r="H77" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="I77" s="20"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="159">
-        <v>4</v>
-      </c>
-      <c r="K77" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K77" s="160"/>
       <c r="L77" s="8" t="s">
         <v>267</v>
       </c>
@@ -19780,12 +19802,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="61.5" customHeight="1">
+    <row r="78" spans="1:14" ht="62.65" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>57</v>
@@ -19805,11 +19827,11 @@
       <c r="H78" s="172" t="s">
         <v>414</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="159">
         <v>4</v>
       </c>
-      <c r="K78" s="21"/>
+      <c r="K78" s="160"/>
       <c r="L78" s="8" t="s">
         <v>267</v>
       </c>
@@ -19817,12 +19839,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="49.15" customHeight="1">
+    <row r="79" spans="1:14" ht="61.5" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>57</v>
@@ -19854,12 +19876,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="37.5">
+    <row r="80" spans="1:14" ht="61.5" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>57</v>
@@ -19891,21 +19913,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="45.6" customHeight="1">
+    <row r="81" spans="1:13" ht="49.15" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>412</v>
+        <v>189</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D81" s="165">
         <v>1</v>
       </c>
       <c r="E81" s="166">
-        <v>460.54</v>
+        <v>35.48865979</v>
       </c>
       <c r="F81" s="167">
         <v>1</v>
@@ -19913,12 +19935,12 @@
       <c r="G81" s="167">
         <v>1</v>
       </c>
-      <c r="H81" s="118" t="s">
+      <c r="H81" s="172" t="s">
         <v>414</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="159">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K81" s="21"/>
       <c r="L81" s="8" t="s">
@@ -19933,14 +19955,16 @@
         <v>413</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="165"/>
+        <v>57</v>
+      </c>
+      <c r="D82" s="165">
+        <v>1</v>
+      </c>
       <c r="E82" s="166">
-        <v>89.5</v>
+        <v>35.48865979</v>
       </c>
       <c r="F82" s="167">
         <v>1</v>
@@ -19948,34 +19972,36 @@
       <c r="G82" s="167">
         <v>1</v>
       </c>
-      <c r="H82" s="118" t="s">
+      <c r="H82" s="172" t="s">
         <v>414</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="159">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K82" s="21"/>
       <c r="L82" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="1:13" ht="41.65" customHeight="1">
+      <c r="M82" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="45.6" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>413</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D83" s="165">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E83" s="166">
-        <v>274.47000000000003</v>
+        <v>460.54</v>
       </c>
       <c r="F83" s="167">
         <v>1</v>
@@ -19983,12 +20009,12 @@
       <c r="G83" s="167">
         <v>1</v>
       </c>
-      <c r="H83" s="172" t="s">
+      <c r="H83" s="118" t="s">
         <v>414</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="159">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K83" s="21"/>
       <c r="L83" s="8" t="s">
@@ -19998,82 +20024,82 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="45.6" customHeight="1">
+    <row r="84" spans="1:13" ht="37.5">
       <c r="A84" s="8" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
-      <c r="E84" s="165">
-        <v>159.86056307000001</v>
+        <v>12</v>
+      </c>
+      <c r="D84" s="165"/>
+      <c r="E84" s="166">
+        <v>89.5</v>
       </c>
       <c r="F84" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="167">
         <v>1</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>508</v>
-      </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8">
-        <v>5</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="37.5">
+        <v>414</v>
+      </c>
+      <c r="I84" s="20"/>
+      <c r="J84" s="159">
+        <v>11</v>
+      </c>
+      <c r="K84" s="21"/>
+      <c r="L84" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="1:13" ht="41.65" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="8">
-        <v>1</v>
-      </c>
-      <c r="E85" s="165">
-        <v>161.42945938</v>
+      <c r="D85" s="165">
+        <v>25</v>
+      </c>
+      <c r="E85" s="166">
+        <v>274.47000000000003</v>
       </c>
       <c r="F85" s="167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G85" s="167">
         <v>1</v>
       </c>
-      <c r="H85" s="118" t="s">
-        <v>508</v>
-      </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8">
-        <v>5</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="H85" s="172" t="s">
+        <v>414</v>
+      </c>
+      <c r="I85" s="20"/>
+      <c r="J85" s="159">
+        <v>1</v>
+      </c>
+      <c r="K85" s="21"/>
+      <c r="L85" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="M85" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1">
+    <row r="86" spans="1:13" ht="45.6" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>506</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>57</v>
@@ -20082,10 +20108,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="165">
-        <v>186.82053396000001</v>
+        <v>159.86056307000001</v>
       </c>
       <c r="F86" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="167">
         <v>1</v>
@@ -20103,12 +20129,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1">
+    <row r="87" spans="1:13" ht="37.5">
       <c r="A87" s="8" t="s">
         <v>506</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>57</v>
@@ -20117,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="165">
-        <v>265.58731551</v>
+        <v>161.42945938</v>
       </c>
       <c r="F87" s="167">
         <v>0.8</v>
@@ -20143,25 +20169,29 @@
         <v>506</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D88" s="8">
-        <v>4.28</v>
+        <v>1</v>
       </c>
       <c r="E88" s="165">
-        <v>101.201059</v>
-      </c>
-      <c r="F88" s="167"/>
-      <c r="G88" s="167"/>
+        <v>186.82053396000001</v>
+      </c>
+      <c r="F88" s="167">
+        <v>1</v>
+      </c>
+      <c r="G88" s="167">
+        <v>1</v>
+      </c>
       <c r="H88" s="118" t="s">
         <v>508</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -20174,19 +20204,19 @@
         <v>506</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D89" s="8">
-        <v>1.51</v>
+        <v>1</v>
       </c>
       <c r="E89" s="165">
-        <v>35.704111949999998</v>
+        <v>265.58731551</v>
       </c>
       <c r="F89" s="167">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G89" s="167">
         <v>1</v>
@@ -20196,7 +20226,7 @@
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -20209,23 +20239,19 @@
         <v>506</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="8">
-        <v>0.72499999999999998</v>
+        <v>4.28</v>
       </c>
       <c r="E90" s="165">
-        <v>17.142702759999999</v>
-      </c>
-      <c r="F90" s="167">
-        <v>1</v>
-      </c>
-      <c r="G90" s="167">
-        <v>1</v>
-      </c>
+        <v>101.201059</v>
+      </c>
+      <c r="F90" s="167"/>
+      <c r="G90" s="167"/>
       <c r="H90" s="118" t="s">
         <v>508</v>
       </c>
@@ -20244,16 +20270,16 @@
         <v>506</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="8">
-        <v>2.5150000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="E91" s="165">
-        <v>59.467444999999998</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="F91" s="167">
         <v>1</v>
@@ -20279,19 +20305,19 @@
         <v>506</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="8">
-        <v>5.9850000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E92" s="165">
-        <v>141.51596699999999</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="F92" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="167">
         <v>1</v>
@@ -20309,24 +20335,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="42.6" customHeight="1">
+    <row r="93" spans="1:13" ht="43.15" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>506</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="8">
-        <v>7.91</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="E93" s="165">
-        <v>187.0327983</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="F93" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="167">
         <v>1</v>
@@ -20344,150 +20370,146 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="35.65" customHeight="1">
+    <row r="94" spans="1:13" ht="43.15" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="165">
-        <v>15.82</v>
+      <c r="D94" s="8">
+        <v>5.9850000000000003</v>
       </c>
       <c r="E94" s="165">
-        <v>472.96222940669998</v>
+        <v>141.51596699999999</v>
       </c>
       <c r="F94" s="167">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G94" s="167">
         <v>1</v>
       </c>
-      <c r="H94" s="175" t="s">
-        <v>420</v>
-      </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="159">
+      <c r="H94" s="118" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8">
         <v>7</v>
       </c>
-      <c r="K94" s="21"/>
-      <c r="L94" s="8" t="s">
-        <v>267</v>
-      </c>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
       <c r="M94" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1">
+    <row r="95" spans="1:13" ht="42.6" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="165">
-        <v>7.1130000000000004</v>
+      <c r="D95" s="8">
+        <v>7.91</v>
       </c>
       <c r="E95" s="165">
-        <v>374.96375491014004</v>
+        <v>187.0327983</v>
       </c>
       <c r="F95" s="167">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G95" s="167">
         <v>1</v>
       </c>
-      <c r="H95" s="175" t="s">
-        <v>420</v>
-      </c>
-      <c r="I95" s="20"/>
-      <c r="J95" s="159">
+      <c r="H95" s="118" t="s">
+        <v>508</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8">
         <v>7</v>
       </c>
-      <c r="K95" s="21"/>
-      <c r="L95" s="8" t="s">
-        <v>267</v>
-      </c>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
       <c r="M95" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1">
+    <row r="96" spans="1:13" ht="35.65" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D96" s="165">
-        <v>1</v>
+        <v>15.82</v>
       </c>
       <c r="E96" s="165">
-        <v>136.31</v>
+        <v>472.96222940669998</v>
       </c>
       <c r="F96" s="167">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="G96" s="167">
         <v>1</v>
       </c>
-      <c r="H96" s="178" t="s">
-        <v>393</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="H96" s="175" t="s">
+        <v>420</v>
+      </c>
+      <c r="I96" s="20"/>
       <c r="J96" s="159">
-        <v>5</v>
-      </c>
-      <c r="K96" s="160"/>
-      <c r="L96" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="K96" s="21"/>
+      <c r="L96" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="M96" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="59.65" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D97" s="165">
-        <v>1</v>
+        <v>7.1130000000000004</v>
       </c>
       <c r="E97" s="165">
-        <v>193.69</v>
+        <v>374.96375491014004</v>
       </c>
       <c r="F97" s="167">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G97" s="167">
         <v>1</v>
       </c>
-      <c r="H97" s="178" t="s">
-        <v>393</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="H97" s="175" t="s">
+        <v>420</v>
+      </c>
+      <c r="I97" s="20"/>
       <c r="J97" s="159">
-        <v>5</v>
-      </c>
-      <c r="K97" s="160"/>
-      <c r="L97" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="K97" s="21"/>
+      <c r="L97" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="M97" s="11" t="s">
         <v>362</v>
       </c>
@@ -20497,7 +20519,7 @@
         <v>384</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>57</v>
@@ -20506,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="165">
-        <v>185.03</v>
+        <v>136.31</v>
       </c>
       <c r="F98" s="167">
         <v>1</v>
@@ -20534,7 +20556,7 @@
         <v>384</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>57</v>
@@ -20543,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="165">
-        <v>136.66</v>
+        <v>193.69</v>
       </c>
       <c r="F99" s="167">
         <v>1</v>
@@ -20571,7 +20593,7 @@
         <v>384</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>57</v>
@@ -20580,7 +20602,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="165">
-        <v>41.018582780000003</v>
+        <v>185.03</v>
       </c>
       <c r="F100" s="167">
         <v>1</v>
@@ -20595,7 +20617,7 @@
         <v>54</v>
       </c>
       <c r="J100" s="159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100" s="160"/>
       <c r="L100" s="8"/>
@@ -20608,7 +20630,7 @@
         <v>384</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>57</v>
@@ -20617,7 +20639,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="165">
-        <v>42.79909541</v>
+        <v>136.66</v>
       </c>
       <c r="F101" s="167">
         <v>1</v>
@@ -20632,7 +20654,7 @@
         <v>54</v>
       </c>
       <c r="J101" s="159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K101" s="160"/>
       <c r="L101" s="8"/>
@@ -20640,12 +20662,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5">
+    <row r="102" spans="1:13" ht="59.65" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>57</v>
@@ -20654,7 +20676,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="165">
-        <v>41.970354120000003</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="F102" s="167">
         <v>1</v>
@@ -20671,18 +20693,18 @@
       <c r="J102" s="159">
         <v>3</v>
       </c>
-      <c r="K102" s="162"/>
+      <c r="K102" s="160"/>
       <c r="L102" s="8"/>
       <c r="M102" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5">
+    <row r="103" spans="1:13" ht="59.65" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>57</v>
@@ -20691,10 +20713,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="165">
-        <v>41.970354120000003</v>
+        <v>42.79909541</v>
       </c>
       <c r="F103" s="167">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G103" s="167">
         <v>1</v>
@@ -20708,7 +20730,7 @@
       <c r="J103" s="159">
         <v>3</v>
       </c>
-      <c r="K103" s="162"/>
+      <c r="K103" s="160"/>
       <c r="L103" s="8"/>
       <c r="M103" s="11" t="s">
         <v>362</v>
@@ -20719,22 +20741,22 @@
         <v>384</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D104" s="165">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E104" s="165">
-        <v>334.27</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="F104" s="167">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G104" s="167">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="H104" s="178" t="s">
         <v>393</v>
@@ -20743,7 +20765,7 @@
         <v>54</v>
       </c>
       <c r="J104" s="159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K104" s="162"/>
       <c r="L104" s="8"/>
@@ -20753,100 +20775,96 @@
     </row>
     <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
-        <v>522</v>
+        <v>384</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="165">
         <v>1</v>
       </c>
       <c r="E105" s="165">
-        <v>321.39906300000001</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="F105" s="167">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="G105" s="167">
         <v>1</v>
       </c>
-      <c r="H105" s="172" t="s">
-        <v>523</v>
-      </c>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="178" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="159">
         <v>3</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M105" s="8" t="s">
+      <c r="K105" s="162"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="37.5">
       <c r="A106" s="8" t="s">
-        <v>522</v>
+        <v>384</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>519</v>
+        <v>360</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="8">
-        <v>1</v>
+      <c r="D106" s="165">
+        <v>36</v>
       </c>
       <c r="E106" s="165">
-        <v>156.68207290000001</v>
+        <v>334.27</v>
       </c>
       <c r="F106" s="167">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G106" s="167">
-        <v>1</v>
-      </c>
-      <c r="H106" s="172" t="s">
-        <v>523</v>
-      </c>
-      <c r="I106" s="8" t="s">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H106" s="178" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J106" s="8">
-        <v>3</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M106" s="8" t="s">
+      <c r="J106" s="159">
+        <v>1</v>
+      </c>
+      <c r="K106" s="162"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="56.25">
+    <row r="107" spans="1:13" ht="37.5">
       <c r="A107" s="8" t="s">
         <v>522</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D107" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E107" s="165">
-        <v>120.55636427649017</v>
+        <v>321.39906300000001</v>
       </c>
       <c r="F107" s="167">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G107" s="167">
         <v>1</v>
@@ -20858,9 +20876,9 @@
         <v>54</v>
       </c>
       <c r="J107" s="8">
-        <v>12</v>
-      </c>
-      <c r="K107" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K107" s="8"/>
       <c r="L107" s="8" t="s">
         <v>269</v>
       </c>
@@ -20873,33 +20891,33 @@
         <v>522</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D108" s="8">
-        <v>9.4939999999999998</v>
+        <v>1</v>
       </c>
       <c r="E108" s="165">
-        <v>329.10739257350991</v>
+        <v>156.68207290000001</v>
       </c>
       <c r="F108" s="167">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G108" s="167">
         <v>1</v>
       </c>
-      <c r="H108" s="175" t="s">
+      <c r="H108" s="172" t="s">
         <v>523</v>
       </c>
       <c r="I108" s="8" t="s">
         <v>54</v>
       </c>
       <c r="J108" s="8">
-        <v>11</v>
-      </c>
-      <c r="K108" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K108" s="8"/>
       <c r="L108" s="8" t="s">
         <v>269</v>
       </c>
@@ -20907,58 +20925,60 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="46.5" customHeight="1">
+    <row r="109" spans="1:13" ht="56.25">
       <c r="A109" s="8" t="s">
-        <v>408</v>
+        <v>522</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="8">
+        <v>5</v>
+      </c>
+      <c r="E109" s="165">
+        <v>120.55636427649017</v>
+      </c>
+      <c r="F109" s="167">
+        <v>0</v>
+      </c>
+      <c r="G109" s="167">
+        <v>1</v>
+      </c>
+      <c r="H109" s="172" t="s">
+        <v>523</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J109" s="8">
         <v>12</v>
       </c>
-      <c r="D109" s="165">
-        <v>10.462999999999999</v>
-      </c>
-      <c r="E109" s="165">
-        <v>235.99241562002004</v>
-      </c>
-      <c r="F109" s="167">
-        <v>0.8</v>
-      </c>
-      <c r="G109" s="167">
-        <v>0.8</v>
-      </c>
-      <c r="H109" s="175" t="s">
-        <v>407</v>
-      </c>
-      <c r="I109" s="11"/>
-      <c r="J109" s="159">
-        <v>11</v>
-      </c>
-      <c r="K109" s="162"/>
+      <c r="K109" s="21"/>
       <c r="L109" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="37.5">
       <c r="A110" s="8" t="s">
-        <v>408</v>
+        <v>522</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="165">
-        <v>1</v>
+      <c r="D110" s="8">
+        <v>9.4939999999999998</v>
       </c>
       <c r="E110" s="165">
-        <v>18.14921786</v>
+        <v>329.10739257350991</v>
       </c>
       <c r="F110" s="167">
         <v>0</v>
@@ -20966,49 +20986,51 @@
       <c r="G110" s="167">
         <v>1</v>
       </c>
-      <c r="H110" s="172" t="s">
-        <v>407</v>
-      </c>
-      <c r="I110" s="11"/>
-      <c r="J110" s="159">
-        <v>7</v>
-      </c>
-      <c r="K110" s="162"/>
+      <c r="H110" s="175" t="s">
+        <v>523</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J110" s="8">
+        <v>11</v>
+      </c>
+      <c r="K110" s="21"/>
       <c r="L110" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="37.5">
+    <row r="111" spans="1:13" ht="46.5" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="165">
-        <v>0.7</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="E111" s="165">
-        <v>28.0678625</v>
+        <v>235.99241562002004</v>
       </c>
       <c r="F111" s="167">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G111" s="167">
-        <v>1</v>
-      </c>
-      <c r="H111" s="172" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="H111" s="175" t="s">
         <v>407</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="159">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K111" s="162"/>
       <c r="L111" s="8" t="s">
@@ -21023,7 +21045,7 @@
         <v>408</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>12</v>
@@ -21032,7 +21054,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="165">
-        <v>5.8813662830000002</v>
+        <v>18.14921786</v>
       </c>
       <c r="F112" s="167">
         <v>0</v>
@@ -21060,19 +21082,19 @@
         <v>408</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="165">
-        <v>0.58399999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="E113" s="165">
-        <v>8.1389467849999999</v>
+        <v>28.0678625</v>
       </c>
       <c r="F113" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="167">
         <v>1</v>
@@ -21097,19 +21119,19 @@
         <v>408</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="165">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="E114" s="165">
-        <v>84.879744000000002</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="F114" s="167">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G114" s="167">
         <v>1</v>
@@ -21134,16 +21156,16 @@
         <v>408</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="165">
-        <v>1.4</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E115" s="165">
-        <v>11.9046562</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="F115" s="167">
         <v>0</v>
@@ -21158,7 +21180,7 @@
       <c r="J115" s="159">
         <v>7</v>
       </c>
-      <c r="K115" s="160"/>
+      <c r="K115" s="162"/>
       <c r="L115" s="8" t="s">
         <v>269</v>
       </c>
@@ -21171,19 +21193,19 @@
         <v>408</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="165">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="E116" s="165">
-        <v>2.4463474449999998</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="F116" s="167">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G116" s="167">
         <v>1</v>
@@ -21195,7 +21217,7 @@
       <c r="J116" s="159">
         <v>7</v>
       </c>
-      <c r="K116" s="160"/>
+      <c r="K116" s="162"/>
       <c r="L116" s="8" t="s">
         <v>269</v>
       </c>
@@ -21203,24 +21225,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="42" customHeight="1">
+    <row r="117" spans="1:13" ht="37.5">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="165">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E117" s="165">
-        <v>14.607284999999999</v>
+        <v>11.9046562</v>
       </c>
       <c r="F117" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="167">
         <v>1</v>
@@ -21245,16 +21267,16 @@
         <v>408</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="165">
-        <v>0.439</v>
+        <v>1.9</v>
       </c>
       <c r="E118" s="165">
-        <v>4.4591922139999998</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="F118" s="167">
         <v>0</v>
@@ -21277,24 +21299,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="37.5">
+    <row r="119" spans="1:13" ht="42" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D119" s="165">
-        <v>1</v>
-      </c>
-      <c r="E119" s="166">
-        <v>195.21688979662997</v>
+        <v>1.7</v>
+      </c>
+      <c r="E119" s="165">
+        <v>14.607284999999999</v>
       </c>
       <c r="F119" s="167">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G119" s="167">
         <v>1</v>
@@ -21304,7 +21326,7 @@
       </c>
       <c r="I119" s="11"/>
       <c r="J119" s="159">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K119" s="160"/>
       <c r="L119" s="8" t="s">
@@ -21319,16 +21341,16 @@
         <v>408</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D120" s="165">
-        <v>1</v>
+        <v>0.439</v>
       </c>
       <c r="E120" s="165">
-        <v>36.661991779400005</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="F120" s="167">
         <v>0</v>
@@ -21341,7 +21363,7 @@
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K120" s="160"/>
       <c r="L120" s="8" t="s">
@@ -21356,7 +21378,7 @@
         <v>408</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>57</v>
@@ -21364,11 +21386,11 @@
       <c r="D121" s="165">
         <v>1</v>
       </c>
-      <c r="E121" s="165">
-        <v>36.661991779400005</v>
+      <c r="E121" s="166">
+        <v>195.21688979662997</v>
       </c>
       <c r="F121" s="167">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G121" s="167">
         <v>1</v>
@@ -21378,7 +21400,7 @@
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K121" s="160"/>
       <c r="L121" s="8" t="s">
@@ -21388,12 +21410,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="39" customHeight="1">
+    <row r="122" spans="1:13" ht="37.5">
       <c r="A122" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>57</v>
@@ -21427,49 +21449,47 @@
     </row>
     <row r="123" spans="1:13" ht="37.5">
       <c r="A123" s="8" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D123" s="165">
-        <v>4.51</v>
+        <v>1</v>
       </c>
       <c r="E123" s="165">
-        <v>107.42083638742001</v>
+        <v>36.661991779400005</v>
       </c>
       <c r="F123" s="167">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G123" s="167">
         <v>1</v>
       </c>
       <c r="H123" s="172" t="s">
-        <v>361</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123" s="8">
-        <v>11</v>
-      </c>
-      <c r="K123" s="162"/>
+        <v>407</v>
+      </c>
+      <c r="I123" s="11"/>
+      <c r="J123" s="159">
+        <v>4</v>
+      </c>
+      <c r="K123" s="160"/>
       <c r="L123" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M123" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5">
+    <row r="124" spans="1:13" ht="39" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>57</v>
@@ -21478,26 +21498,24 @@
         <v>1</v>
       </c>
       <c r="E124" s="165">
-        <v>295.52623265906004</v>
+        <v>36.661991779400005</v>
       </c>
       <c r="F124" s="167">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="G124" s="167">
         <v>1</v>
       </c>
-      <c r="H124" s="175" t="s">
-        <v>361</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J124" s="8">
-        <v>3</v>
-      </c>
-      <c r="K124" s="162"/>
+      <c r="H124" s="172" t="s">
+        <v>407</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="159">
+        <v>4</v>
+      </c>
+      <c r="K124" s="160"/>
       <c r="L124" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M124" s="11" t="s">
         <v>362</v>
@@ -21508,31 +21526,31 @@
         <v>355</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D125" s="165">
-        <v>1</v>
+        <v>4.51</v>
       </c>
       <c r="E125" s="165">
-        <v>227.06035419159994</v>
+        <v>107.42083638742001</v>
       </c>
       <c r="F125" s="167">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="G125" s="167">
         <v>1</v>
       </c>
-      <c r="H125" s="175" t="s">
+      <c r="H125" s="172" t="s">
         <v>361</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J125" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K125" s="162"/>
       <c r="L125" s="8" t="s">
@@ -21547,31 +21565,31 @@
         <v>355</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D126" s="165">
-        <v>1.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="E126" s="165">
-        <v>28.577189027550002</v>
+        <v>295.52623265906004</v>
       </c>
       <c r="F126" s="167">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G126" s="167">
-        <v>0.3</v>
-      </c>
-      <c r="H126" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" s="175" t="s">
         <v>361</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J126" s="159">
-        <v>7</v>
+      <c r="J126" s="8">
+        <v>3</v>
       </c>
       <c r="K126" s="162"/>
       <c r="L126" s="8" t="s">
@@ -21586,31 +21604,31 @@
         <v>355</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D127" s="165">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E127" s="165">
-        <v>3.8603672257600001</v>
+        <v>227.06035419159994</v>
       </c>
       <c r="F127" s="167">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G127" s="167">
         <v>1</v>
       </c>
-      <c r="H127" s="172" t="s">
+      <c r="H127" s="175" t="s">
         <v>361</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J127" s="159">
-        <v>7</v>
+      <c r="J127" s="8">
+        <v>3</v>
       </c>
       <c r="K127" s="162"/>
       <c r="L127" s="8" t="s">
@@ -21625,22 +21643,22 @@
         <v>355</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D128" s="165">
-        <v>1</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E128" s="165">
-        <v>38.929323272960012</v>
+        <v>28.577189027550002</v>
       </c>
       <c r="F128" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="167">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H128" s="172" t="s">
         <v>361</v>
@@ -21649,7 +21667,7 @@
         <v>54</v>
       </c>
       <c r="J128" s="159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K128" s="162"/>
       <c r="L128" s="8" t="s">
@@ -21659,21 +21677,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5">
+    <row r="129" spans="1:13" ht="37.5">
       <c r="A129" s="8" t="s">
         <v>355</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D129" s="165">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="E129" s="165">
-        <v>62.861978238559992</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="F129" s="167">
         <v>1</v>
@@ -21688,7 +21706,7 @@
         <v>54</v>
       </c>
       <c r="J129" s="159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K129" s="162"/>
       <c r="L129" s="8" t="s">
@@ -21698,21 +21716,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5">
+    <row r="130" spans="1:13" ht="37.5">
       <c r="A130" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D130" s="165">
-        <v>19.843</v>
-      </c>
-      <c r="E130" s="166">
-        <v>1149.1962001492996</v>
+        <v>1</v>
+      </c>
+      <c r="E130" s="165">
+        <v>38.929323272960012</v>
       </c>
       <c r="F130" s="167">
         <v>1</v>
@@ -21721,93 +21739,93 @@
         <v>1</v>
       </c>
       <c r="H130" s="172" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J130" s="8">
-        <v>11</v>
+      <c r="J130" s="159">
+        <v>4</v>
       </c>
       <c r="K130" s="162"/>
       <c r="L130" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M130" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5">
+    <row r="131" spans="1:13" ht="37.5">
       <c r="A131" s="8" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D131" s="165">
-        <v>1</v>
-      </c>
-      <c r="E131" s="166">
-        <v>405.93708967677014</v>
+        <v>4</v>
+      </c>
+      <c r="E131" s="165">
+        <v>62.861978238559992</v>
       </c>
       <c r="F131" s="167">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G131" s="167">
         <v>1</v>
       </c>
       <c r="H131" s="172" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="I131" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J131" s="159">
-        <v>3</v>
-      </c>
-      <c r="K131" s="160"/>
+        <v>1</v>
+      </c>
+      <c r="K131" s="162"/>
       <c r="L131" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M131" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5">
+    <row r="132" spans="1:13" ht="37.5">
       <c r="A132" s="8" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D132" s="165">
-        <v>1</v>
+        <v>19.843</v>
       </c>
       <c r="E132" s="166">
-        <v>320.03459359999999</v>
+        <v>1149.1962001492996</v>
       </c>
       <c r="F132" s="167">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G132" s="167">
-        <v>0.88</v>
-      </c>
-      <c r="H132" s="175" t="s">
-        <v>380</v>
+        <v>1</v>
+      </c>
+      <c r="H132" s="172" t="s">
+        <v>367</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J132" s="159">
-        <v>7</v>
-      </c>
-      <c r="K132" s="160"/>
+      <c r="J132" s="8">
+        <v>11</v>
+      </c>
+      <c r="K132" s="162"/>
       <c r="L132" s="8" t="s">
         <v>273</v>
       </c>
@@ -21815,24 +21833,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5">
+    <row r="133" spans="1:13" ht="37.5">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D133" s="165">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="E133" s="166">
-        <v>54.403540110000002</v>
+        <v>405.93708967677014</v>
       </c>
       <c r="F133" s="167">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="G133" s="167">
         <v>1</v>
@@ -21844,7 +21862,7 @@
         <v>54</v>
       </c>
       <c r="J133" s="159">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K133" s="160"/>
       <c r="L133" s="8" t="s">
@@ -21854,12 +21872,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5">
+    <row r="134" spans="1:13" ht="37.5">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>57</v>
@@ -21868,22 +21886,22 @@
         <v>1</v>
       </c>
       <c r="E134" s="166">
-        <v>346.4138345175399</v>
+        <v>320.03459359999999</v>
       </c>
       <c r="F134" s="167">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="G134" s="167">
-        <v>0</v>
-      </c>
-      <c r="H134" s="172" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="H134" s="175" t="s">
         <v>380</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J134" s="159">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K134" s="160"/>
       <c r="L134" s="8" t="s">
@@ -21893,27 +21911,27 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5">
+    <row r="135" spans="1:13" ht="37.5">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D135" s="165">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E135" s="166">
-        <v>288.07948569393005</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="F135" s="167">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="G135" s="167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="172" t="s">
         <v>380</v>
@@ -21922,7 +21940,7 @@
         <v>54</v>
       </c>
       <c r="J135" s="159">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K135" s="160"/>
       <c r="L135" s="8" t="s">
@@ -21932,12 +21950,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5">
+    <row r="136" spans="1:13" ht="37.5">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>57</v>
@@ -21946,13 +21964,13 @@
         <v>1</v>
       </c>
       <c r="E136" s="166">
-        <v>189.52974883928999</v>
+        <v>346.4138345175399</v>
       </c>
       <c r="F136" s="167">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G136" s="167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="172" t="s">
         <v>380</v>
@@ -21971,12 +21989,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5">
+    <row r="137" spans="1:13" ht="37.5">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>57</v>
@@ -21985,7 +22003,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="166">
-        <v>41.822123349999998</v>
+        <v>288.07948569393005</v>
       </c>
       <c r="F137" s="167">
         <v>0</v>
@@ -21993,14 +22011,14 @@
       <c r="G137" s="167">
         <v>0</v>
       </c>
-      <c r="H137" s="118" t="s">
+      <c r="H137" s="172" t="s">
         <v>380</v>
       </c>
       <c r="I137" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J137" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K137" s="160"/>
       <c r="L137" s="8" t="s">
@@ -22010,24 +22028,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5">
+    <row r="138" spans="1:13" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D138" s="165">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E138" s="166">
-        <v>118.56733669862</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="F138" s="167">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="G138" s="167">
         <v>1</v>
@@ -22039,7 +22057,7 @@
         <v>54</v>
       </c>
       <c r="J138" s="159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K138" s="160"/>
       <c r="L138" s="8" t="s">
@@ -22049,21 +22067,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5">
+    <row r="139" spans="1:13" ht="37.5">
       <c r="A139" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D139" s="165">
-        <v>0.54</v>
-      </c>
-      <c r="E139" s="165">
-        <v>22.7160982732</v>
+        <v>1</v>
+      </c>
+      <c r="E139" s="166">
+        <v>41.822123349999998</v>
       </c>
       <c r="F139" s="167">
         <v>0</v>
@@ -22071,77 +22089,77 @@
       <c r="G139" s="167">
         <v>0</v>
       </c>
-      <c r="H139" s="8" t="s">
-        <v>373</v>
+      <c r="H139" s="118" t="s">
+        <v>380</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J139" s="159">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K139" s="160"/>
       <c r="L139" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M139" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5">
+    <row r="140" spans="1:13" ht="37.5">
       <c r="A140" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D140" s="165">
-        <v>3.96</v>
-      </c>
-      <c r="E140" s="165">
-        <v>71.526410010000006</v>
+        <v>15</v>
+      </c>
+      <c r="E140" s="166">
+        <v>118.56733669862</v>
       </c>
       <c r="F140" s="167">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G140" s="167">
-        <v>0</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>373</v>
+        <v>1</v>
+      </c>
+      <c r="H140" s="172" t="s">
+        <v>380</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J140" s="159">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K140" s="160"/>
       <c r="L140" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M140" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5">
+    <row r="141" spans="1:13" ht="37.5">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="165">
-        <v>2.1</v>
+        <v>0.54</v>
       </c>
       <c r="E141" s="165">
-        <v>12.72235877</v>
+        <v>22.7160982732</v>
       </c>
       <c r="F141" s="167">
         <v>0</v>
@@ -22156,7 +22174,7 @@
         <v>54</v>
       </c>
       <c r="J141" s="159">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K141" s="160"/>
       <c r="L141" s="8" t="s">
@@ -22166,21 +22184,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5">
+    <row r="142" spans="1:13" ht="37.5">
       <c r="A142" s="8" t="s">
         <v>374</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="165">
-        <v>1.1399999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="E142" s="165">
-        <v>16.387823999999998</v>
+        <v>71.526410010000006</v>
       </c>
       <c r="F142" s="167">
         <v>0</v>
@@ -22205,131 +22223,129 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="37.5">
-      <c r="A143" s="75" t="s">
+    <row r="143" spans="1:13" ht="37.5">
+      <c r="A143" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B143" s="75" t="s">
-        <v>372</v>
+      <c r="B143" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="75">
+      <c r="D143" s="165">
+        <v>2.1</v>
+      </c>
+      <c r="E143" s="165">
+        <v>12.72235877</v>
+      </c>
+      <c r="F143" s="167">
+        <v>0</v>
+      </c>
+      <c r="G143" s="167">
+        <v>0</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J143" s="159">
+        <v>7</v>
+      </c>
+      <c r="K143" s="160"/>
+      <c r="L143" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="37.5">
+      <c r="A144" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="165">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E144" s="165">
+        <v>16.387823999999998</v>
+      </c>
+      <c r="F144" s="167">
+        <v>0</v>
+      </c>
+      <c r="G144" s="167">
+        <v>0</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J144" s="159">
+        <v>7</v>
+      </c>
+      <c r="K144" s="160"/>
+      <c r="L144" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="37.5">
+      <c r="A145" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="B145" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="75">
         <v>15.5</v>
       </c>
-      <c r="E143" s="186">
+      <c r="E145" s="186">
         <v>367.318307</v>
-      </c>
-      <c r="F143" s="187">
-        <v>0</v>
-      </c>
-      <c r="G143" s="187">
-        <v>0</v>
-      </c>
-      <c r="H143" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="I143" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="J143" s="75">
-        <v>7</v>
-      </c>
-      <c r="K143" s="75"/>
-      <c r="L143" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="M143" s="75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="39.6" customHeight="1">
-      <c r="A144" s="75" t="s">
-        <v>569</v>
-      </c>
-      <c r="B144" s="75" t="s">
-        <v>567</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D144" s="75">
-        <v>1</v>
-      </c>
-      <c r="E144" s="186">
-        <v>156.62</v>
-      </c>
-      <c r="F144" s="187">
-        <v>0</v>
-      </c>
-      <c r="G144" s="187">
-        <v>1</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="I144" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="J144" s="75">
-        <v>3</v>
-      </c>
-      <c r="K144" s="21"/>
-      <c r="L144" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="M144" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="N144" s="19"/>
-    </row>
-    <row r="145" spans="1:14" ht="35.450000000000003" customHeight="1">
-      <c r="A145" s="75" t="s">
-        <v>569</v>
-      </c>
-      <c r="B145" s="75" t="s">
-        <v>568</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" s="75">
-        <v>1</v>
-      </c>
-      <c r="E145" s="186">
-        <v>148</v>
       </c>
       <c r="F145" s="187">
         <v>0</v>
       </c>
       <c r="G145" s="187">
-        <v>1</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>537</v>
+        <v>0</v>
+      </c>
+      <c r="H145" s="75" t="s">
+        <v>373</v>
       </c>
       <c r="I145" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J145" s="75">
-        <v>3</v>
-      </c>
-      <c r="K145" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K145" s="75"/>
       <c r="L145" s="75" t="s">
         <v>275</v>
       </c>
       <c r="M145" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="N145" s="19"/>
-    </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1">
+    </row>
+    <row r="146" spans="1:14" ht="39.6" customHeight="1">
       <c r="A146" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>570</v>
+      <c r="B146" s="75" t="s">
+        <v>567</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>57</v>
@@ -22338,7 +22354,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="186">
-        <v>41.88</v>
+        <v>156.62</v>
       </c>
       <c r="F146" s="187">
         <v>0</v>
@@ -22352,8 +22368,8 @@
       <c r="I146" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J146" s="21">
-        <v>4</v>
+      <c r="J146" s="75">
+        <v>3</v>
       </c>
       <c r="K146" s="21"/>
       <c r="L146" s="75" t="s">
@@ -22364,21 +22380,21 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1">
+    <row r="147" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A147" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>571</v>
+      <c r="B147" s="75" t="s">
+        <v>568</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="75">
         <v>1</v>
       </c>
       <c r="E147" s="186">
-        <v>140.87</v>
+        <v>148</v>
       </c>
       <c r="F147" s="187">
         <v>0</v>
@@ -22392,8 +22408,8 @@
       <c r="I147" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J147" s="21">
-        <v>5</v>
+      <c r="J147" s="75">
+        <v>3</v>
       </c>
       <c r="K147" s="21"/>
       <c r="L147" s="75" t="s">
@@ -22405,47 +22421,127 @@
       <c r="N147" s="19"/>
     </row>
     <row r="148" spans="1:14" ht="22.9" customHeight="1">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="75" t="s">
         <v>569</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="8">
-        <v>1</v>
-      </c>
-      <c r="E148" s="165">
-        <v>407.31</v>
-      </c>
-      <c r="F148" s="167">
+      <c r="D148" s="75">
+        <v>1</v>
+      </c>
+      <c r="E148" s="186">
+        <v>41.88</v>
+      </c>
+      <c r="F148" s="187">
         <v>0</v>
       </c>
-      <c r="G148" s="167">
+      <c r="G148" s="187">
         <v>1</v>
       </c>
       <c r="H148" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="I148" s="8" t="s">
+      <c r="I148" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J148" s="21">
+        <v>4</v>
+      </c>
+      <c r="K148" s="21"/>
+      <c r="L148" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="M148" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="N148" s="19"/>
+    </row>
+    <row r="149" spans="1:14" ht="22.9" customHeight="1">
+      <c r="A149" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D149" s="8">
+        <v>1</v>
+      </c>
+      <c r="E149" s="186">
+        <v>140.87</v>
+      </c>
+      <c r="F149" s="187">
+        <v>0</v>
+      </c>
+      <c r="G149" s="187">
+        <v>1</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="I149" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J149" s="21">
         <v>5</v>
       </c>
-      <c r="K148" s="21"/>
-      <c r="L148" s="8" t="s">
+      <c r="K149" s="21"/>
+      <c r="L149" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="M148" s="8" t="s">
+      <c r="M149" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="N148" s="19"/>
-    </row>
-    <row r="149" spans="1:14" ht="14.45" customHeight="1">
-      <c r="B149" s="188"/>
+      <c r="N149" s="19"/>
+    </row>
+    <row r="150" spans="1:14" ht="22.9" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150" s="8">
+        <v>1</v>
+      </c>
+      <c r="E150" s="165">
+        <v>407.31</v>
+      </c>
+      <c r="F150" s="167">
+        <v>0</v>
+      </c>
+      <c r="G150" s="167">
+        <v>1</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J150" s="21">
+        <v>5</v>
+      </c>
+      <c r="K150" s="21"/>
+      <c r="L150" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M150" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="N150" s="19"/>
+    </row>
+    <row r="151" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B151" s="188"/>
     </row>
   </sheetData>
   <sortState ref="A2:M142">
@@ -22455,10 +22551,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="10" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="26" max="14" man="1"/>
-    <brk id="54" max="14" man="1"/>
-    <brk id="73" max="14" man="1"/>
-    <brk id="101" max="14" man="1"/>
+    <brk id="27" max="14" man="1"/>
+    <brk id="55" max="14" man="1"/>
+    <brk id="75" max="14" man="1"/>
+    <brk id="103" max="14" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="581">
   <si>
     <t>Package Name</t>
   </si>
@@ -1691,9 +1691,6 @@
     <t>KISH/PW-27</t>
   </si>
   <si>
-    <t>KISH/PW-28</t>
-  </si>
-  <si>
     <t>KISH/PW-29</t>
   </si>
   <si>
@@ -1803,6 +1800,24 @@
   </si>
   <si>
     <t>Causeway 6.0m wide-1 at Samar Bari</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-04</t>
+  </si>
+  <si>
+    <t>BWDB/Kish/HFMLIP/ PW-28</t>
+  </si>
+  <si>
+    <t>WMG Building</t>
   </si>
 </sst>
 </file>
@@ -2645,9 +2660,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2674,15 +2686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2701,6 +2704,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13635,13 +13650,13 @@
       <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="201"/>
+      <c r="B49" s="209"/>
+      <c r="C49" s="209"/>
+      <c r="D49" s="209"/>
+      <c r="E49" s="209"/>
       <c r="F49" s="44">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -14572,24 +14587,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="170" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1" s="170" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>564</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="170" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B2" s="170"/>
       <c r="C2" s="19"/>
@@ -14600,7 +14615,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="170" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="19"/>
@@ -14611,7 +14626,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="170" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B4" s="170"/>
       <c r="C4" s="19"/>
@@ -14622,7 +14637,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="170" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="19"/>
@@ -14633,7 +14648,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="170" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="19"/>
@@ -14644,7 +14659,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="170" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="19"/>
@@ -14655,7 +14670,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="170" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="19"/>
@@ -14666,7 +14681,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="170" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="19"/>
@@ -14677,7 +14692,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="170" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="19"/>
@@ -14688,7 +14703,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="170" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="19"/>
@@ -14699,7 +14714,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="170" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="19"/>
@@ -14710,7 +14725,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="170" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="19"/>
@@ -14732,7 +14747,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14747,7 +14762,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>225</v>
@@ -14756,10 +14771,10 @@
         <v>226</v>
       </c>
       <c r="D1" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="184" t="s">
         <v>549</v>
-      </c>
-      <c r="E1" s="184" t="s">
-        <v>550</v>
       </c>
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
@@ -14779,7 +14794,7 @@
         <v>291.81</v>
       </c>
       <c r="E2" s="170" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="185"/>
@@ -14799,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="170" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="185"/>
@@ -14819,7 +14834,7 @@
         <v>6503.97</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H4" s="93"/>
       <c r="I4" s="185"/>
@@ -14839,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H5" s="93"/>
       <c r="I5" s="185"/>
@@ -14859,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H6" s="93"/>
       <c r="I6" s="185"/>
@@ -14879,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H7" s="93"/>
       <c r="I7" s="185"/>
@@ -14899,7 +14914,7 @@
         <v>2546.54</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H8" s="93"/>
       <c r="I8" s="185"/>
@@ -14919,7 +14934,7 @@
         <v>51.09</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="185"/>
@@ -14937,7 +14952,7 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="170" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="185"/>
@@ -14955,7 +14970,7 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="170" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="185"/>
@@ -14975,7 +14990,7 @@
         <v>5833.04</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="185"/>
@@ -14993,7 +15008,7 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="170" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="93"/>
@@ -15011,7 +15026,7 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="170" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
@@ -15029,7 +15044,7 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="170" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15044,7 +15059,7 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="170" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -16826,8 +16841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B145" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16839,7 +16854,7 @@
     <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
@@ -17148,30 +17163,30 @@
       <c r="C8" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="189">
-        <v>1</v>
-      </c>
-      <c r="E8" s="189">
+      <c r="D8" s="188">
+        <v>1</v>
+      </c>
+      <c r="E8" s="188">
         <v>123.81</v>
       </c>
-      <c r="F8" s="190">
-        <v>1</v>
-      </c>
-      <c r="G8" s="190">
+      <c r="F8" s="189">
+        <v>1</v>
+      </c>
+      <c r="G8" s="189">
         <v>1</v>
       </c>
       <c r="H8" s="172" t="s">
         <v>504</v>
       </c>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192">
+      <c r="I8" s="190"/>
+      <c r="J8" s="191">
         <v>3</v>
       </c>
-      <c r="K8" s="193"/>
+      <c r="K8" s="192"/>
       <c r="L8" s="172" t="s">
         <v>259</v>
       </c>
-      <c r="M8" s="194" t="s">
+      <c r="M8" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N8" s="47"/>
@@ -17421,30 +17436,30 @@
       <c r="C15" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="190">
-        <v>1</v>
-      </c>
-      <c r="E15" s="189">
+      <c r="D15" s="189">
+        <v>1</v>
+      </c>
+      <c r="E15" s="188">
         <v>180.84</v>
       </c>
-      <c r="F15" s="190">
-        <v>1</v>
-      </c>
-      <c r="G15" s="190">
+      <c r="F15" s="189">
+        <v>1</v>
+      </c>
+      <c r="G15" s="189">
         <v>1</v>
       </c>
       <c r="H15" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="191"/>
-      <c r="J15" s="192">
+      <c r="I15" s="190"/>
+      <c r="J15" s="191">
         <v>3</v>
       </c>
-      <c r="K15" s="193"/>
+      <c r="K15" s="192"/>
       <c r="L15" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="194" t="s">
+      <c r="M15" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N15" s="47"/>
@@ -17460,30 +17475,30 @@
       <c r="C16" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="190">
+      <c r="D16" s="189">
         <v>10.382999999999999</v>
       </c>
-      <c r="E16" s="189">
+      <c r="E16" s="188">
         <v>236.03</v>
       </c>
-      <c r="F16" s="190">
-        <v>1</v>
-      </c>
-      <c r="G16" s="190">
+      <c r="F16" s="189">
+        <v>1</v>
+      </c>
+      <c r="G16" s="189">
         <v>1</v>
       </c>
       <c r="H16" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192">
+      <c r="I16" s="190"/>
+      <c r="J16" s="191">
         <v>11</v>
       </c>
-      <c r="K16" s="193"/>
+      <c r="K16" s="192"/>
       <c r="L16" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M16" s="194" t="s">
+      <c r="M16" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N16" s="47"/>
@@ -17499,223 +17514,223 @@
       <c r="C17" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="190"/>
-      <c r="E17" s="189">
+      <c r="D17" s="189"/>
+      <c r="E17" s="188">
         <v>277.10000000000002</v>
       </c>
-      <c r="F17" s="190">
-        <v>1</v>
-      </c>
-      <c r="G17" s="190">
+      <c r="F17" s="189">
+        <v>1</v>
+      </c>
+      <c r="G17" s="189">
         <v>1</v>
       </c>
       <c r="H17" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192">
+      <c r="I17" s="190"/>
+      <c r="J17" s="191">
         <v>11</v>
       </c>
-      <c r="K17" s="193"/>
+      <c r="K17" s="192"/>
       <c r="L17" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M17" s="194" t="s">
+      <c r="M17" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="198" t="s">
         <v>490</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="199" t="s">
         <v>491</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="204">
-        <v>1</v>
-      </c>
-      <c r="E18" s="204">
+      <c r="D18" s="200">
+        <v>1</v>
+      </c>
+      <c r="E18" s="200">
         <v>97.3</v>
       </c>
-      <c r="F18" s="205">
-        <v>1</v>
-      </c>
-      <c r="G18" s="205">
-        <v>1</v>
-      </c>
-      <c r="H18" s="203" t="s">
+      <c r="F18" s="201">
+        <v>1</v>
+      </c>
+      <c r="G18" s="201">
+        <v>1</v>
+      </c>
+      <c r="H18" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207">
+      <c r="I18" s="202"/>
+      <c r="J18" s="203">
         <v>3</v>
       </c>
-      <c r="K18" s="208"/>
-      <c r="L18" s="203" t="s">
+      <c r="K18" s="204"/>
+      <c r="L18" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="M18" s="209" t="s">
+      <c r="M18" s="205" t="s">
         <v>362</v>
       </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A19" s="202" t="s">
+      <c r="A19" s="198" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="199" t="s">
         <v>492</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="204">
-        <v>1</v>
-      </c>
-      <c r="E19" s="204">
+      <c r="D19" s="200">
+        <v>1</v>
+      </c>
+      <c r="E19" s="200">
         <v>97.3</v>
       </c>
-      <c r="F19" s="205">
-        <v>1</v>
-      </c>
-      <c r="G19" s="205">
-        <v>1</v>
-      </c>
-      <c r="H19" s="203" t="s">
+      <c r="F19" s="201">
+        <v>1</v>
+      </c>
+      <c r="G19" s="201">
+        <v>1</v>
+      </c>
+      <c r="H19" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207">
+      <c r="I19" s="202"/>
+      <c r="J19" s="203">
         <v>3</v>
       </c>
-      <c r="K19" s="208"/>
-      <c r="L19" s="203" t="s">
+      <c r="K19" s="204"/>
+      <c r="L19" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="M19" s="209" t="s">
+      <c r="M19" s="205" t="s">
         <v>362</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="198" t="s">
         <v>490</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="199" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="204">
-        <v>1</v>
-      </c>
-      <c r="E20" s="204">
+      <c r="D20" s="200">
+        <v>1</v>
+      </c>
+      <c r="E20" s="200">
         <v>254.37</v>
       </c>
-      <c r="F20" s="205">
-        <v>1</v>
-      </c>
-      <c r="G20" s="205">
-        <v>1</v>
-      </c>
-      <c r="H20" s="203" t="s">
+      <c r="F20" s="201">
+        <v>1</v>
+      </c>
+      <c r="G20" s="201">
+        <v>1</v>
+      </c>
+      <c r="H20" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207">
+      <c r="I20" s="202"/>
+      <c r="J20" s="203">
         <v>3</v>
       </c>
-      <c r="K20" s="208"/>
-      <c r="L20" s="203" t="s">
+      <c r="K20" s="204"/>
+      <c r="L20" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="M20" s="209" t="s">
+      <c r="M20" s="205" t="s">
         <v>362</v>
       </c>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="198" t="s">
         <v>490</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="199" t="s">
         <v>488</v>
       </c>
-      <c r="C21" s="203" t="s">
+      <c r="C21" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="204">
+      <c r="D21" s="200">
         <v>6.4710000000000001</v>
       </c>
-      <c r="E21" s="204">
+      <c r="E21" s="200">
         <v>121.63</v>
       </c>
-      <c r="F21" s="205">
-        <v>1</v>
-      </c>
-      <c r="G21" s="205">
-        <v>1</v>
-      </c>
-      <c r="H21" s="203" t="s">
+      <c r="F21" s="201">
+        <v>1</v>
+      </c>
+      <c r="G21" s="201">
+        <v>1</v>
+      </c>
+      <c r="H21" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207">
+      <c r="I21" s="202"/>
+      <c r="J21" s="203">
         <v>11</v>
       </c>
-      <c r="K21" s="208"/>
-      <c r="L21" s="203" t="s">
+      <c r="K21" s="204"/>
+      <c r="L21" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="209" t="s">
+      <c r="M21" s="205" t="s">
         <v>362</v>
       </c>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="198" t="s">
         <v>490</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="199" t="s">
         <v>416</v>
       </c>
-      <c r="C22" s="203" t="s">
+      <c r="C22" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="204">
-        <v>1</v>
-      </c>
-      <c r="E22" s="204">
+      <c r="D22" s="200">
+        <v>1</v>
+      </c>
+      <c r="E22" s="200">
         <v>143.38999999999999</v>
       </c>
-      <c r="F22" s="205">
-        <v>1</v>
-      </c>
-      <c r="G22" s="205">
-        <v>1</v>
-      </c>
-      <c r="H22" s="203" t="s">
+      <c r="F22" s="201">
+        <v>1</v>
+      </c>
+      <c r="G22" s="201">
+        <v>1</v>
+      </c>
+      <c r="H22" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207">
+      <c r="I22" s="202"/>
+      <c r="J22" s="203">
         <v>11</v>
       </c>
-      <c r="K22" s="208"/>
-      <c r="L22" s="203" t="s">
+      <c r="K22" s="204"/>
+      <c r="L22" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="M22" s="209" t="s">
+      <c r="M22" s="205" t="s">
         <v>362</v>
       </c>
       <c r="N22" s="47"/>
@@ -18082,30 +18097,30 @@
       <c r="C32" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="189">
+      <c r="D32" s="188">
         <v>4</v>
       </c>
-      <c r="E32" s="189">
+      <c r="E32" s="188">
         <v>41.55</v>
       </c>
-      <c r="F32" s="190">
-        <v>1</v>
-      </c>
-      <c r="G32" s="190">
+      <c r="F32" s="189">
+        <v>1</v>
+      </c>
+      <c r="G32" s="189">
         <v>1</v>
       </c>
       <c r="H32" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I32" s="191"/>
-      <c r="J32" s="192">
+      <c r="I32" s="190"/>
+      <c r="J32" s="191">
         <v>7</v>
       </c>
-      <c r="K32" s="193"/>
+      <c r="K32" s="192"/>
       <c r="L32" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M32" s="194" t="s">
+      <c r="M32" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N32" s="47"/>
@@ -18121,30 +18136,30 @@
       <c r="C33" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="189">
+      <c r="D33" s="188">
         <v>3.43</v>
       </c>
-      <c r="E33" s="189">
+      <c r="E33" s="188">
         <v>69.7</v>
       </c>
-      <c r="F33" s="190">
-        <v>1</v>
-      </c>
-      <c r="G33" s="190">
+      <c r="F33" s="189">
+        <v>1</v>
+      </c>
+      <c r="G33" s="189">
         <v>1</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I33" s="191"/>
-      <c r="J33" s="192">
+      <c r="I33" s="190"/>
+      <c r="J33" s="191">
         <v>7</v>
       </c>
-      <c r="K33" s="193"/>
+      <c r="K33" s="192"/>
       <c r="L33" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M33" s="194" t="s">
+      <c r="M33" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N33" s="47"/>
@@ -18160,30 +18175,30 @@
       <c r="C34" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="189">
+      <c r="D34" s="188">
         <v>0.9</v>
       </c>
-      <c r="E34" s="189">
+      <c r="E34" s="188">
         <v>23.7</v>
       </c>
-      <c r="F34" s="190">
-        <v>1</v>
-      </c>
-      <c r="G34" s="190">
+      <c r="F34" s="189">
+        <v>1</v>
+      </c>
+      <c r="G34" s="189">
         <v>1</v>
       </c>
       <c r="H34" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192">
+      <c r="I34" s="190"/>
+      <c r="J34" s="191">
         <v>7</v>
       </c>
-      <c r="K34" s="193"/>
+      <c r="K34" s="192"/>
       <c r="L34" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M34" s="194" t="s">
+      <c r="M34" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N34" s="47"/>
@@ -18199,30 +18214,30 @@
       <c r="C35" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="189">
+      <c r="D35" s="188">
         <v>0.5</v>
       </c>
-      <c r="E35" s="189">
+      <c r="E35" s="188">
         <v>10.039999999999999</v>
       </c>
-      <c r="F35" s="190">
-        <v>1</v>
-      </c>
-      <c r="G35" s="190">
+      <c r="F35" s="189">
+        <v>1</v>
+      </c>
+      <c r="G35" s="189">
         <v>1</v>
       </c>
       <c r="H35" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192">
+      <c r="I35" s="190"/>
+      <c r="J35" s="191">
         <v>7</v>
       </c>
-      <c r="K35" s="193"/>
+      <c r="K35" s="192"/>
       <c r="L35" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M35" s="194" t="s">
+      <c r="M35" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N35" s="47"/>
@@ -18238,30 +18253,30 @@
       <c r="C36" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="189">
+      <c r="D36" s="188">
         <v>7.07</v>
       </c>
-      <c r="E36" s="189">
+      <c r="E36" s="188">
         <v>356.51</v>
       </c>
-      <c r="F36" s="190">
-        <v>1</v>
-      </c>
-      <c r="G36" s="190">
+      <c r="F36" s="189">
+        <v>1</v>
+      </c>
+      <c r="G36" s="189">
         <v>1</v>
       </c>
       <c r="H36" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192">
+      <c r="I36" s="190"/>
+      <c r="J36" s="191">
         <v>7</v>
       </c>
-      <c r="K36" s="193"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M36" s="194" t="s">
+      <c r="M36" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N36" s="47"/>
@@ -18277,30 +18292,30 @@
       <c r="C37" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="189">
+      <c r="D37" s="188">
         <v>3.56</v>
       </c>
-      <c r="E37" s="189" t="s">
-        <v>573</v>
-      </c>
-      <c r="F37" s="190">
-        <v>1</v>
-      </c>
-      <c r="G37" s="190">
+      <c r="E37" s="188" t="s">
+        <v>572</v>
+      </c>
+      <c r="F37" s="189">
+        <v>1</v>
+      </c>
+      <c r="G37" s="189">
         <v>1</v>
       </c>
       <c r="H37" s="172" t="s">
         <v>477</v>
       </c>
-      <c r="I37" s="191"/>
-      <c r="J37" s="192">
+      <c r="I37" s="190"/>
+      <c r="J37" s="191">
         <v>7</v>
       </c>
-      <c r="K37" s="193"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="M37" s="194" t="s">
+      <c r="M37" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N37" s="47"/>
@@ -18665,30 +18680,30 @@
       <c r="C47" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="189">
-        <v>1</v>
-      </c>
-      <c r="E47" s="189">
+      <c r="D47" s="188">
+        <v>1</v>
+      </c>
+      <c r="E47" s="188">
         <v>210.83</v>
       </c>
-      <c r="F47" s="190">
-        <v>1</v>
-      </c>
-      <c r="G47" s="190">
+      <c r="F47" s="189">
+        <v>1</v>
+      </c>
+      <c r="G47" s="189">
         <v>1</v>
       </c>
       <c r="H47" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="I47" s="191"/>
-      <c r="J47" s="192">
+      <c r="I47" s="190"/>
+      <c r="J47" s="191">
         <v>5</v>
       </c>
-      <c r="K47" s="193"/>
+      <c r="K47" s="192"/>
       <c r="L47" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M47" s="194" t="s">
+      <c r="M47" s="193" t="s">
         <v>362</v>
       </c>
       <c r="N47" s="47"/>
@@ -18704,30 +18719,30 @@
       <c r="C48" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="189">
-        <v>1</v>
-      </c>
-      <c r="E48" s="189">
+      <c r="D48" s="188">
+        <v>1</v>
+      </c>
+      <c r="E48" s="188">
         <v>176.64</v>
       </c>
-      <c r="F48" s="190">
-        <v>1</v>
-      </c>
-      <c r="G48" s="190">
+      <c r="F48" s="189">
+        <v>1</v>
+      </c>
+      <c r="G48" s="189">
         <v>1</v>
       </c>
       <c r="H48" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192">
+      <c r="I48" s="190"/>
+      <c r="J48" s="191">
         <v>5</v>
       </c>
-      <c r="K48" s="193"/>
+      <c r="K48" s="192"/>
       <c r="L48" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M48" s="194" t="s">
+      <c r="M48" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -18736,35 +18751,35 @@
         <v>443</v>
       </c>
       <c r="B49" s="172" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C49" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="189">
-        <v>1</v>
-      </c>
-      <c r="E49" s="189">
+      <c r="D49" s="188">
+        <v>1</v>
+      </c>
+      <c r="E49" s="188">
         <v>66.64</v>
       </c>
-      <c r="F49" s="190">
-        <v>1</v>
-      </c>
-      <c r="G49" s="190">
+      <c r="F49" s="189">
+        <v>1</v>
+      </c>
+      <c r="G49" s="189">
         <v>1</v>
       </c>
       <c r="H49" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="191"/>
-      <c r="J49" s="192">
+      <c r="I49" s="190"/>
+      <c r="J49" s="191">
         <v>4</v>
       </c>
-      <c r="K49" s="193"/>
+      <c r="K49" s="192"/>
       <c r="L49" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M49" s="194" t="s">
+      <c r="M49" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -18773,35 +18788,35 @@
         <v>443</v>
       </c>
       <c r="B50" s="172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C50" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="189">
-        <v>1</v>
-      </c>
-      <c r="E50" s="189">
+      <c r="D50" s="188">
+        <v>1</v>
+      </c>
+      <c r="E50" s="188">
         <v>241.26</v>
       </c>
-      <c r="F50" s="190">
-        <v>1</v>
-      </c>
-      <c r="G50" s="190">
+      <c r="F50" s="189">
+        <v>1</v>
+      </c>
+      <c r="G50" s="189">
         <v>1</v>
       </c>
       <c r="H50" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="I50" s="191"/>
-      <c r="J50" s="192">
+      <c r="I50" s="190"/>
+      <c r="J50" s="191">
         <v>5</v>
       </c>
-      <c r="K50" s="193"/>
+      <c r="K50" s="192"/>
       <c r="L50" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="M50" s="194" t="s">
+      <c r="M50" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19294,30 +19309,30 @@
       <c r="C64" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="189">
-        <v>1</v>
-      </c>
-      <c r="E64" s="189">
+      <c r="D64" s="188">
+        <v>1</v>
+      </c>
+      <c r="E64" s="188">
         <v>224.08</v>
       </c>
-      <c r="F64" s="190">
+      <c r="F64" s="189">
         <v>0.95</v>
       </c>
-      <c r="G64" s="190">
+      <c r="G64" s="189">
         <v>1</v>
       </c>
       <c r="H64" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I64" s="191"/>
-      <c r="J64" s="192">
+      <c r="I64" s="190"/>
+      <c r="J64" s="191">
         <v>3</v>
       </c>
-      <c r="K64" s="193"/>
+      <c r="K64" s="192"/>
       <c r="L64" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M64" s="194" t="s">
+      <c r="M64" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19331,30 +19346,30 @@
       <c r="C65" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="189">
-        <v>1</v>
-      </c>
-      <c r="E65" s="189">
+      <c r="D65" s="188">
+        <v>1</v>
+      </c>
+      <c r="E65" s="188">
         <v>196.52</v>
       </c>
-      <c r="F65" s="190">
+      <c r="F65" s="189">
         <v>0.95</v>
       </c>
-      <c r="G65" s="190">
+      <c r="G65" s="189">
         <v>1</v>
       </c>
       <c r="H65" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I65" s="191"/>
-      <c r="J65" s="192">
+      <c r="I65" s="190"/>
+      <c r="J65" s="191">
         <v>3</v>
       </c>
-      <c r="K65" s="193"/>
+      <c r="K65" s="192"/>
       <c r="L65" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M65" s="194" t="s">
+      <c r="M65" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19368,30 +19383,30 @@
       <c r="C66" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="189">
+      <c r="D66" s="188">
         <v>10</v>
       </c>
-      <c r="E66" s="189">
+      <c r="E66" s="188">
         <v>489.17598947869993</v>
       </c>
-      <c r="F66" s="190">
+      <c r="F66" s="189">
         <v>0.4</v>
       </c>
-      <c r="G66" s="190">
+      <c r="G66" s="189">
         <v>1</v>
       </c>
       <c r="H66" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I66" s="191"/>
-      <c r="J66" s="192">
+      <c r="I66" s="190"/>
+      <c r="J66" s="191">
         <v>11</v>
       </c>
-      <c r="K66" s="193"/>
+      <c r="K66" s="192"/>
       <c r="L66" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M66" s="194" t="s">
+      <c r="M66" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19405,30 +19420,30 @@
       <c r="C67" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="189">
-        <v>1</v>
-      </c>
-      <c r="E67" s="189">
+      <c r="D67" s="188">
+        <v>1</v>
+      </c>
+      <c r="E67" s="188">
         <v>70.98</v>
       </c>
-      <c r="F67" s="190">
+      <c r="F67" s="189">
         <v>0.4</v>
       </c>
-      <c r="G67" s="190">
+      <c r="G67" s="189">
         <v>1</v>
       </c>
       <c r="H67" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="I67" s="191"/>
-      <c r="J67" s="192">
+      <c r="I67" s="190"/>
+      <c r="J67" s="191">
         <v>11</v>
       </c>
-      <c r="K67" s="193"/>
+      <c r="K67" s="192"/>
       <c r="L67" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="M67" s="194" t="s">
+      <c r="M67" s="193" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19448,20 +19463,20 @@
       <c r="E68" s="68">
         <v>263.7</v>
       </c>
-      <c r="F68" s="195">
+      <c r="F68" s="194">
         <v>0.95</v>
       </c>
-      <c r="G68" s="195">
+      <c r="G68" s="194">
         <v>1</v>
       </c>
       <c r="H68" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="I68" s="196"/>
+      <c r="I68" s="195"/>
       <c r="J68" s="54">
         <v>3</v>
       </c>
-      <c r="K68" s="197"/>
+      <c r="K68" s="196"/>
       <c r="L68" s="49" t="s">
         <v>267</v>
       </c>
@@ -19485,20 +19500,20 @@
       <c r="E69" s="68">
         <v>485.98</v>
       </c>
-      <c r="F69" s="195">
+      <c r="F69" s="194">
         <v>0.86</v>
       </c>
-      <c r="G69" s="195">
+      <c r="G69" s="194">
         <v>1</v>
       </c>
       <c r="H69" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="I69" s="196"/>
+      <c r="I69" s="195"/>
       <c r="J69" s="54">
         <v>11</v>
       </c>
-      <c r="K69" s="197"/>
+      <c r="K69" s="196"/>
       <c r="L69" s="49" t="s">
         <v>267</v>
       </c>
@@ -19523,20 +19538,20 @@
       <c r="E70" s="68">
         <v>133.96</v>
       </c>
-      <c r="F70" s="195">
+      <c r="F70" s="194">
         <v>0</v>
       </c>
-      <c r="G70" s="195">
+      <c r="G70" s="194">
         <v>1</v>
       </c>
       <c r="H70" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="I70" s="196"/>
+      <c r="I70" s="195"/>
       <c r="J70" s="54">
         <v>11</v>
       </c>
-      <c r="K70" s="197"/>
+      <c r="K70" s="196"/>
       <c r="L70" s="49" t="s">
         <v>267</v>
       </c>
@@ -22342,10 +22357,10 @@
     </row>
     <row r="146" spans="1:14" ht="39.6" customHeight="1">
       <c r="A146" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B146" s="75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>57</v>
@@ -22382,10 +22397,10 @@
     </row>
     <row r="147" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A147" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B147" s="75" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>57</v>
@@ -22422,10 +22437,10 @@
     </row>
     <row r="148" spans="1:14" ht="22.9" customHeight="1">
       <c r="A148" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>57</v>
@@ -22462,10 +22477,10 @@
     </row>
     <row r="149" spans="1:14" ht="22.9" customHeight="1">
       <c r="A149" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>57</v>
@@ -22502,10 +22517,10 @@
     </row>
     <row r="150" spans="1:14" ht="22.9" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>57</v>
@@ -22540,8 +22555,45 @@
       </c>
       <c r="N150" s="19"/>
     </row>
-    <row r="151" spans="1:14" ht="14.45" customHeight="1">
-      <c r="B151" s="188"/>
+    <row r="151" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A151" s="170" t="s">
+        <v>579</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" s="8">
+        <v>11</v>
+      </c>
+      <c r="E151" s="21">
+        <v>347.64</v>
+      </c>
+      <c r="F151" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G151" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J151" s="21">
+        <v>15</v>
+      </c>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="M151" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="N151" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A2:M142">
@@ -24425,13 +24477,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="198" t="s">
+      <c r="A43" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="208"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -27913,10 +27965,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27934,7 +27986,7 @@
         <v>535</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28004,7 +28056,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="51">
+      <c r="A8" s="170">
         <v>7</v>
       </c>
       <c r="B8" s="181" t="s">
@@ -28026,7 +28078,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="51">
+      <c r="A10" s="170">
         <v>9</v>
       </c>
       <c r="B10" s="181" t="s">
@@ -28037,7 +28089,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="51">
+      <c r="A11" s="170">
         <v>10</v>
       </c>
       <c r="B11" s="181" t="s">
@@ -28048,7 +28100,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="51">
+      <c r="A12" s="170">
         <v>11</v>
       </c>
       <c r="B12" s="181" t="s">
@@ -28070,7 +28122,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="51">
+      <c r="A14" s="170">
         <v>13</v>
       </c>
       <c r="B14" s="181" t="s">
@@ -28081,7 +28133,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="51">
+      <c r="A15" s="170">
         <v>14</v>
       </c>
       <c r="B15" s="181" t="s">
@@ -28092,7 +28144,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="51">
+      <c r="A16" s="170">
         <v>15</v>
       </c>
       <c r="B16" s="181" t="s">
@@ -28103,7 +28155,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="51">
+      <c r="A17" s="170">
         <v>16</v>
       </c>
       <c r="B17" s="181" t="s">
@@ -28114,7 +28166,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="51">
+      <c r="A18" s="170">
         <v>17</v>
       </c>
       <c r="B18" s="181" t="s">
@@ -28136,7 +28188,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="51">
+      <c r="A20" s="170">
         <v>19</v>
       </c>
       <c r="B20" s="181" t="s">
@@ -28169,7 +28221,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="51">
+      <c r="A23" s="170">
         <v>22</v>
       </c>
       <c r="B23" s="181" t="s">
@@ -28191,7 +28243,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="51">
+      <c r="A25" s="170">
         <v>24</v>
       </c>
       <c r="B25" s="181" t="s">
@@ -28202,7 +28254,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="51">
+      <c r="A26" s="170">
         <v>25</v>
       </c>
       <c r="B26" s="181" t="s">
@@ -28224,7 +28276,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="51">
+      <c r="A28" s="170">
         <v>27</v>
       </c>
       <c r="B28" s="181" t="s">
@@ -28239,18 +28291,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="179" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="C29" s="170">
-        <v>0</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="170">
         <v>29</v>
       </c>
-      <c r="B30" s="179" t="s">
-        <v>539</v>
+      <c r="B30" s="197" t="s">
+        <v>576</v>
       </c>
       <c r="C30" s="170">
         <v>0</v>
@@ -28260,8 +28312,8 @@
       <c r="A31" s="170">
         <v>30</v>
       </c>
-      <c r="B31" s="179" t="s">
-        <v>540</v>
+      <c r="B31" s="197" t="s">
+        <v>577</v>
       </c>
       <c r="C31" s="170">
         <v>0</v>
@@ -28271,11 +28323,11 @@
       <c r="A32" s="170">
         <v>31</v>
       </c>
-      <c r="B32" s="179" t="s">
-        <v>541</v>
+      <c r="B32" s="197" t="s">
+        <v>578</v>
       </c>
       <c r="C32" s="170">
-        <v>0</v>
+        <v>74.41</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -28283,7 +28335,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C33" s="170">
         <v>0</v>
@@ -28294,7 +28346,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="179" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C34" s="170">
         <v>0</v>
@@ -28305,7 +28357,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="179" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C35" s="170">
         <v>0</v>
@@ -28316,7 +28368,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="179" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C36" s="170">
         <v>0</v>
@@ -28327,7 +28379,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="179" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C37" s="170">
         <v>0</v>
@@ -28338,7 +28390,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="179" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C38" s="170">
         <v>0</v>
@@ -28349,9 +28401,42 @@
         <v>38</v>
       </c>
       <c r="B39" s="179" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C39" s="170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="170">
+        <v>39</v>
+      </c>
+      <c r="B40" s="179" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" s="170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="170">
+        <v>40</v>
+      </c>
+      <c r="B41" s="179" t="s">
+        <v>546</v>
+      </c>
+      <c r="C41" s="170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="170">
+        <v>41</v>
+      </c>
+      <c r="B42" s="179" t="s">
+        <v>547</v>
+      </c>
+      <c r="C42" s="170">
         <v>0</v>
       </c>
     </row>
@@ -30212,12 +30297,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="201" t="s">
+      <c r="A43" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="201"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="201"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="19"/>
       <c r="F43" s="142">
         <f>SUM(F2:F42)</f>

--- a/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input.xlsx
@@ -8791,10 +8791,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9059,21 +9059,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="111">
         <v>11</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="111">
         <v>14</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="111">
         <v>21</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="111">
         <v>42</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="111">
         <v>43</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="111">
         <v>44</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="111">
         <v>45</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="111">
         <v>46</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="128">
         <v>47</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="48"/>
@@ -11306,7 +11306,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="135"/>
@@ -11323,7 +11323,7 @@
       <c r="N50" s="93"/>
       <c r="O50" s="137"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="135"/>
@@ -11340,7 +11340,7 @@
       <c r="N51" s="93"/>
       <c r="O51" s="137"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="135"/>
@@ -11357,8 +11357,8 @@
       <c r="N52" s="93"/>
       <c r="O52" s="137"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
         <v>336</v>
@@ -11380,7 +11380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="92" t="s">
         <v>122</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="92" t="s">
         <v>133</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="92" t="s">
         <v>184</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="92" t="s">
         <v>144</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="92" t="s">
         <v>155</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="92" t="s">
         <v>174</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="95">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11587,7 +11587,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="94"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -11596,8 +11596,8 @@
       <c r="J62" s="93"/>
       <c r="K62" s="93"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11622,22 +11622,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="71" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13303,7 +13303,7 @@
       <c r="P40" s="85"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="69">
         <v>45</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="P41" s="82"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="69">
         <v>30</v>
       </c>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="69">
         <v>33</v>
       </c>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="69">
         <v>36</v>
       </c>
@@ -13477,7 +13477,7 @@
       </c>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="69">
         <v>39</v>
       </c>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="69">
         <v>43</v>
       </c>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="69">
         <v>46</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="P47" s="84"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="69">
         <v>47</v>
       </c>
@@ -13649,7 +13649,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
       <c r="A49" s="209" t="s">
         <v>118</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="87"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -13702,7 +13702,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -13994,12 +13994,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14576,13 +14576,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14750,14 +14750,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15076,20 +15076,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -15132,7 +15132,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.65" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.7" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>120</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>131</v>
       </c>
@@ -16841,27 +16841,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B145" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17153,7 +17153,7 @@
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="172" t="s">
         <v>503</v>
       </c>
@@ -17970,7 +17970,7 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="29" spans="1:15" s="163" customFormat="1" ht="32.4" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>485</v>
       </c>
@@ -18009,7 +18009,7 @@
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
+    <row r="30" spans="1:15" s="163" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>485</v>
       </c>
@@ -18594,7 +18594,7 @@
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
     </row>
-    <row r="45" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="45" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>467</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="61.15" customHeight="1">
+    <row r="53" spans="1:13" ht="61.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>441</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="58.15" customHeight="1">
+    <row r="55" spans="1:13" ht="58.2" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>440</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="62.65" customHeight="1">
+    <row r="78" spans="1:14" ht="62.7" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="49.15" customHeight="1">
+    <row r="81" spans="1:13" ht="49.2" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="37.5">
+    <row r="82" spans="1:13" ht="18">
       <c r="A82" s="8" t="s">
         <v>413</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="18">
       <c r="A84" s="8" t="s">
         <v>413</v>
       </c>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" ht="41.65" customHeight="1">
+    <row r="85" spans="1:13" ht="41.7" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>413</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="37.5">
+    <row r="87" spans="1:13" ht="36">
       <c r="A87" s="8" t="s">
         <v>506</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>506</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>506</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>506</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>506</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="43.15" customHeight="1">
+    <row r="92" spans="1:13" ht="43.2" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>506</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="43.15" customHeight="1">
+    <row r="93" spans="1:13" ht="43.2" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>506</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="43.15" customHeight="1">
+    <row r="94" spans="1:13" ht="43.2" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>506</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="35.65" customHeight="1">
+    <row r="96" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>419</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>419</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>384</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>384</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>384</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="59.65" customHeight="1">
+    <row r="101" spans="1:13" ht="59.7" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>384</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="59.65" customHeight="1">
+    <row r="102" spans="1:13" ht="59.7" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="59.65" customHeight="1">
+    <row r="103" spans="1:13" ht="59.7" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>384</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>384</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="37.5">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>384</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>522</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="37.5">
+    <row r="108" spans="1:13" ht="36">
       <c r="A108" s="8" t="s">
         <v>522</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="56.25">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>522</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5">
+    <row r="110" spans="1:13" ht="36">
       <c r="A110" s="8" t="s">
         <v>522</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5">
+    <row r="112" spans="1:13" ht="36">
       <c r="A112" s="8" t="s">
         <v>408</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5">
+    <row r="113" spans="1:13" ht="36">
       <c r="A113" s="8" t="s">
         <v>408</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5">
+    <row r="114" spans="1:13" ht="36">
       <c r="A114" s="8" t="s">
         <v>408</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5">
+    <row r="115" spans="1:13" ht="36">
       <c r="A115" s="8" t="s">
         <v>408</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="37.5">
+    <row r="116" spans="1:13" ht="36">
       <c r="A116" s="8" t="s">
         <v>408</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5">
+    <row r="117" spans="1:13" ht="36">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="36">
       <c r="A118" s="8" t="s">
         <v>408</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5">
+    <row r="120" spans="1:13" ht="36">
       <c r="A120" s="8" t="s">
         <v>408</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="37.5">
+    <row r="121" spans="1:13" ht="36">
       <c r="A121" s="8" t="s">
         <v>408</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>408</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="36">
       <c r="A123" s="8" t="s">
         <v>408</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>355</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>355</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5">
+    <row r="128" spans="1:13" ht="36">
       <c r="A128" s="8" t="s">
         <v>355</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="37.5">
+    <row r="129" spans="1:13" ht="36">
       <c r="A129" s="8" t="s">
         <v>355</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="37.5">
+    <row r="130" spans="1:13" ht="36">
       <c r="A130" s="8" t="s">
         <v>355</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="37.5">
+    <row r="131" spans="1:13" ht="36">
       <c r="A131" s="8" t="s">
         <v>355</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="37.5">
+    <row r="132" spans="1:13" ht="36">
       <c r="A132" s="8" t="s">
         <v>366</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="37.5">
+    <row r="133" spans="1:13" ht="36">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
@@ -21887,7 +21887,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="37.5">
+    <row r="134" spans="1:13" ht="36">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="37.5">
+    <row r="135" spans="1:13" ht="36">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="37.5">
+    <row r="136" spans="1:13" ht="36">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="37.5">
+    <row r="137" spans="1:13" ht="36">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="37.5">
+    <row r="138" spans="1:13" ht="36">
       <c r="A138" s="8" t="s">
         <v>379</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="37.5">
+    <row r="139" spans="1:13" ht="36">
       <c r="A139" s="8" t="s">
         <v>379</v>
       </c>
@@ -22121,7 +22121,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="37.5">
+    <row r="140" spans="1:13" ht="36">
       <c r="A140" s="8" t="s">
         <v>379</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="37.5">
+    <row r="141" spans="1:13" ht="36">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="37.5">
+    <row r="142" spans="1:13" ht="36">
       <c r="A142" s="8" t="s">
         <v>374</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="37.5">
+    <row r="143" spans="1:13" ht="36">
       <c r="A143" s="8" t="s">
         <v>374</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="37.5">
+    <row r="144" spans="1:13" ht="36">
       <c r="A144" s="8" t="s">
         <v>374</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="37.5">
+    <row r="145" spans="1:14" ht="36">
       <c r="A145" s="75" t="s">
         <v>374</v>
       </c>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="147" spans="1:14" ht="35.4" customHeight="1">
       <c r="A147" s="75" t="s">
         <v>568</v>
       </c>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="N147" s="19"/>
     </row>
-    <row r="148" spans="1:14" ht="22.9" customHeight="1">
+    <row r="148" spans="1:14" ht="22.95" customHeight="1">
       <c r="A148" s="75" t="s">
         <v>568</v>
       </c>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="N148" s="19"/>
     </row>
-    <row r="149" spans="1:14" ht="22.9" customHeight="1">
+    <row r="149" spans="1:14" ht="22.95" customHeight="1">
       <c r="A149" s="75" t="s">
         <v>568</v>
       </c>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="N149" s="19"/>
     </row>
-    <row r="150" spans="1:14" ht="22.9" customHeight="1">
+    <row r="150" spans="1:14" ht="22.95" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>568</v>
       </c>
@@ -22619,20 +22619,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -24526,21 +24526,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -26217,20 +26217,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -27971,11 +27971,11 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -28454,23 +28454,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="145" customWidth="1"/>
     <col min="7" max="7" width="16" style="145" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="148" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="145" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="148" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="145" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="148" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="148" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="145" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -30480,7 +30480,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="150"/>
       <c r="E49" s="134" t="s">
         <v>40</v>
@@ -30582,7 +30582,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="134" t="s">
         <v>74</v>
       </c>
@@ -30615,7 +30615,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="134" t="s">
         <v>97</v>
       </c>
